--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1283420.463143582</v>
+        <v>1283018.030230497</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224954.6036843628</v>
+        <v>241946.9810785735</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10227890.344698</v>
+        <v>10231834.77718149</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>47.26051233741183</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>9.108656310855517</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -738,7 +738,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -747,10 +747,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>160.5289752506637</v>
+        <v>132.6177240924746</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>165.2518882566948</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>158.5472194005045</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>322.1044583319659</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>379.2552150334271</v>
       </c>
       <c r="F5" t="n">
         <v>410.0096787829314</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,13 +984,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>119.599850236937</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.239335916814814</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>14.50387586212042</v>
+        <v>243.4438153256982</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>141.0988270580635</v>
+        <v>358.6946091634243</v>
       </c>
       <c r="F8" t="n">
         <v>410.0096787829314</v>
@@ -1148,10 +1148,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>68.75030598420591</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>148.6434910876323</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>147.9354366772953</v>
+        <v>40.63244338022742</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>294.3398275538361</v>
+        <v>280.8016135680806</v>
       </c>
       <c r="C11" t="n">
-        <v>282.3511445115178</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>295.0745861259513</v>
+        <v>281.5363721401958</v>
       </c>
       <c r="F11" t="n">
-        <v>314.2464022139285</v>
+        <v>300.708188228173</v>
       </c>
       <c r="G11" t="n">
-        <v>316.179670111351</v>
+        <v>302.6414561255955</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>52.63334405214761</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.78753624853357</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>76.0551950611912</v>
       </c>
       <c r="T11" t="n">
-        <v>126.3520802372961</v>
+        <v>112.8138662515406</v>
       </c>
       <c r="U11" t="n">
-        <v>156.5732063541431</v>
+        <v>143.0349923683875</v>
       </c>
       <c r="V11" t="n">
-        <v>90.62590288392587</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>249.6080902862166</v>
       </c>
       <c r="X11" t="n">
-        <v>282.4465625047187</v>
+        <v>268.9083485189632</v>
       </c>
       <c r="Y11" t="n">
-        <v>293.8431603009175</v>
+        <v>280.3049463151619</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1458,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>91.92019827692754</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
@@ -1506,7 +1506,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>143.4864109000542</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.87414695315588</v>
+        <v>72.41832444277765</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>58.61831928817813</v>
       </c>
       <c r="D13" t="n">
-        <v>55.77789767151204</v>
+        <v>42.23968368575652</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41.18743354153597</v>
       </c>
       <c r="F13" t="n">
-        <v>55.19257185547779</v>
+        <v>41.65435786972228</v>
       </c>
       <c r="G13" t="n">
-        <v>71.46727457682563</v>
+        <v>57.92906059107011</v>
       </c>
       <c r="H13" t="n">
-        <v>62.01564219951605</v>
+        <v>48.47742821376053</v>
       </c>
       <c r="I13" t="n">
-        <v>46.9977373843454</v>
+        <v>33.45952339858988</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>52.26328700276271</v>
+        <v>38.72507301700719</v>
       </c>
       <c r="S13" t="n">
-        <v>115.8093884013465</v>
+        <v>102.2711744155909</v>
       </c>
       <c r="T13" t="n">
-        <v>135.0838870834751</v>
+        <v>23.11475926750098</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5550605467882</v>
+        <v>175.0168465610327</v>
       </c>
       <c r="V13" t="n">
-        <v>162.3646748281587</v>
+        <v>148.8264608424032</v>
       </c>
       <c r="W13" t="n">
-        <v>187.531560898772</v>
+        <v>173.9933469130165</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>119.6384489088196</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>110.5133166648873</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>283.0729323100667</v>
+        <v>280.8016135680806</v>
       </c>
       <c r="C14" t="n">
-        <v>271.0842492677484</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>262.0655533122764</v>
+        <v>259.7942345702903</v>
       </c>
       <c r="E14" t="n">
-        <v>283.807690882182</v>
+        <v>281.5363721401958</v>
       </c>
       <c r="F14" t="n">
-        <v>302.9795069701592</v>
+        <v>300.708188228173</v>
       </c>
       <c r="G14" t="n">
-        <v>304.9127748675817</v>
+        <v>302.6414561255955</v>
       </c>
       <c r="H14" t="n">
-        <v>222.4628898458916</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>76.0551950611912</v>
       </c>
       <c r="T14" t="n">
-        <v>115.0851849935267</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>145.3063111103737</v>
+        <v>143.0349923683875</v>
       </c>
       <c r="V14" t="n">
-        <v>226.5793095502458</v>
+        <v>224.3079908082597</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>261.6489599788505</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.67613968753381</v>
+        <v>280.3049463151619</v>
       </c>
     </row>
     <row r="15">
@@ -1740,10 +1740,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>174.883182684976</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>143.4864109000542</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.68964318476378</v>
+        <v>72.41832444277765</v>
       </c>
       <c r="C16" t="n">
-        <v>60.88963803016426</v>
+        <v>58.61831928817813</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.23968368575652</v>
       </c>
       <c r="E16" t="n">
-        <v>43.4587522835221</v>
+        <v>41.18743354153597</v>
       </c>
       <c r="F16" t="n">
-        <v>43.92567661170841</v>
+        <v>41.65435786972228</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.92906059107011</v>
       </c>
       <c r="H16" t="n">
-        <v>50.74874695574667</v>
+        <v>48.47742821376053</v>
       </c>
       <c r="I16" t="n">
-        <v>35.73084214057602</v>
+        <v>33.45952339858988</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.99639175899333</v>
+        <v>38.72507301700719</v>
       </c>
       <c r="S16" t="n">
-        <v>104.5424931575771</v>
+        <v>102.2711744155909</v>
       </c>
       <c r="T16" t="n">
-        <v>75.94740390634227</v>
+        <v>121.5456730977196</v>
       </c>
       <c r="U16" t="n">
-        <v>177.2881653030189</v>
+        <v>175.0168465610327</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0977795843894</v>
+        <v>148.8264608424032</v>
       </c>
       <c r="W16" t="n">
-        <v>176.2646656550026</v>
+        <v>173.9933469130165</v>
       </c>
       <c r="X16" t="n">
-        <v>121.9097676508057</v>
+        <v>21.20753507860036</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.7846354068734</v>
+        <v>110.5133166648873</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.1832942799024</v>
+        <v>219.4367213710092</v>
       </c>
       <c r="C17" t="n">
-        <v>210.1946112375842</v>
+        <v>207.448038328691</v>
       </c>
       <c r="D17" t="n">
-        <v>201.1759152821122</v>
+        <v>198.429342373219</v>
       </c>
       <c r="E17" t="n">
-        <v>222.9180528520177</v>
+        <v>220.1714799431245</v>
       </c>
       <c r="F17" t="n">
-        <v>242.0898689399949</v>
+        <v>239.3432960311017</v>
       </c>
       <c r="G17" t="n">
-        <v>244.0231368374174</v>
+        <v>241.2765639285242</v>
       </c>
       <c r="H17" t="n">
-        <v>161.5732518157281</v>
+        <v>158.8266789068341</v>
       </c>
       <c r="I17" t="n">
-        <v>3.169216960355442</v>
+        <v>0.4226440514622425</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.43687577301307</v>
+        <v>14.69030286411987</v>
       </c>
       <c r="T17" t="n">
-        <v>54.19554696336243</v>
+        <v>51.44897405446923</v>
       </c>
       <c r="U17" t="n">
-        <v>84.41667308020939</v>
+        <v>81.67010017131619</v>
       </c>
       <c r="V17" t="n">
-        <v>165.6896715200816</v>
+        <v>162.9430986111884</v>
       </c>
       <c r="W17" t="n">
-        <v>190.9897709980385</v>
+        <v>188.2431980891453</v>
       </c>
       <c r="X17" t="n">
-        <v>210.2900292307851</v>
+        <v>207.5434563218919</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.6866270269838</v>
+        <v>218.9400541180906</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>50.72160464352908</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1986,7 +1986,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>154.5111564482863</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.80000515459952</v>
+        <v>11.05343224570632</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.65285512741281</v>
+        <v>40.90628221851961</v>
       </c>
       <c r="T19" t="n">
-        <v>62.92735380954144</v>
+        <v>60.18078090064824</v>
       </c>
       <c r="U19" t="n">
-        <v>116.3985272728546</v>
+        <v>113.6519543639614</v>
       </c>
       <c r="V19" t="n">
-        <v>90.20814155422511</v>
+        <v>87.46156864533191</v>
       </c>
       <c r="W19" t="n">
-        <v>115.3750276248384</v>
+        <v>112.6284547159452</v>
       </c>
       <c r="X19" t="n">
-        <v>61.02012962064148</v>
+        <v>58.27355671174828</v>
       </c>
       <c r="Y19" t="n">
-        <v>51.89499737670917</v>
+        <v>49.14842446781597</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.1832942799024</v>
+        <v>219.4367213710093</v>
       </c>
       <c r="C20" t="n">
-        <v>210.1946112375842</v>
+        <v>207.448038328691</v>
       </c>
       <c r="D20" t="n">
-        <v>201.1759152821122</v>
+        <v>198.429342373219</v>
       </c>
       <c r="E20" t="n">
-        <v>222.9180528520177</v>
+        <v>220.1714799431245</v>
       </c>
       <c r="F20" t="n">
-        <v>242.0898689399949</v>
+        <v>239.3432960311017</v>
       </c>
       <c r="G20" t="n">
-        <v>244.0231368374174</v>
+        <v>241.2765639285242</v>
       </c>
       <c r="H20" t="n">
-        <v>161.5732518157273</v>
+        <v>158.8266789068341</v>
       </c>
       <c r="I20" t="n">
-        <v>3.169216960355442</v>
+        <v>0.4226440514622709</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.43687577301307</v>
+        <v>14.6903028641199</v>
       </c>
       <c r="T20" t="n">
-        <v>54.19554696336243</v>
+        <v>51.44897405446926</v>
       </c>
       <c r="U20" t="n">
-        <v>84.41667308020939</v>
+        <v>81.67010017131622</v>
       </c>
       <c r="V20" t="n">
-        <v>165.6896715200816</v>
+        <v>162.9430986111884</v>
       </c>
       <c r="W20" t="n">
-        <v>190.9897709980385</v>
+        <v>188.2431980891453</v>
       </c>
       <c r="X20" t="n">
-        <v>210.2900292307851</v>
+        <v>207.5434563218919</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.6866270269838</v>
+        <v>218.9400541180907</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>77.46138060535954</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -2220,7 +2220,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>197.4760482863262</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.80000515459952</v>
+        <v>11.05343224570635</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.65285512741281</v>
+        <v>40.90628221851964</v>
       </c>
       <c r="T22" t="n">
-        <v>62.92735380954144</v>
+        <v>60.18078090064827</v>
       </c>
       <c r="U22" t="n">
-        <v>116.3985272728546</v>
+        <v>113.6519543639614</v>
       </c>
       <c r="V22" t="n">
-        <v>90.20814155422511</v>
+        <v>87.46156864533194</v>
       </c>
       <c r="W22" t="n">
-        <v>115.3750276248384</v>
+        <v>112.6284547159452</v>
       </c>
       <c r="X22" t="n">
-        <v>61.02012962064148</v>
+        <v>58.27355671174831</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.89499737670917</v>
+        <v>49.148424467816</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>222.1832942799024</v>
+        <v>219.4367213710093</v>
       </c>
       <c r="C23" t="n">
-        <v>210.1946112375842</v>
+        <v>207.448038328691</v>
       </c>
       <c r="D23" t="n">
-        <v>201.1759152821122</v>
+        <v>198.429342373219</v>
       </c>
       <c r="E23" t="n">
-        <v>222.9180528520177</v>
+        <v>220.1714799431245</v>
       </c>
       <c r="F23" t="n">
-        <v>242.0898689399949</v>
+        <v>239.3432960311017</v>
       </c>
       <c r="G23" t="n">
-        <v>244.0231368374174</v>
+        <v>241.2765639285242</v>
       </c>
       <c r="H23" t="n">
-        <v>161.5732518157273</v>
+        <v>158.8266789068341</v>
       </c>
       <c r="I23" t="n">
-        <v>3.169216960355442</v>
+        <v>0.4226440514622709</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.43687577301307</v>
+        <v>14.6903028641199</v>
       </c>
       <c r="T23" t="n">
-        <v>54.19554696336243</v>
+        <v>51.44897405446926</v>
       </c>
       <c r="U23" t="n">
-        <v>84.41667308020939</v>
+        <v>81.67010017131622</v>
       </c>
       <c r="V23" t="n">
-        <v>165.6896715200816</v>
+        <v>162.9430986111884</v>
       </c>
       <c r="W23" t="n">
-        <v>190.9897709980385</v>
+        <v>188.2431980891453</v>
       </c>
       <c r="X23" t="n">
-        <v>210.2900292307851</v>
+        <v>207.5434563218919</v>
       </c>
       <c r="Y23" t="n">
-        <v>221.6866270269838</v>
+        <v>218.9400541180907</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>54.82499521359522</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
@@ -2457,7 +2457,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>197.4760482863262</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.80000515459952</v>
+        <v>11.05343224570635</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.65285512741281</v>
+        <v>40.90628221851964</v>
       </c>
       <c r="T25" t="n">
-        <v>62.92735380954144</v>
+        <v>60.18078090064827</v>
       </c>
       <c r="U25" t="n">
-        <v>116.3985272728546</v>
+        <v>113.6519543639614</v>
       </c>
       <c r="V25" t="n">
-        <v>90.20814155422511</v>
+        <v>87.46156864533194</v>
       </c>
       <c r="W25" t="n">
-        <v>115.3750276248384</v>
+        <v>112.6284547159452</v>
       </c>
       <c r="X25" t="n">
-        <v>61.02012962064148</v>
+        <v>58.27355671174831</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.89499737670917</v>
+        <v>49.148424467816</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>265.4060433708609</v>
+        <v>276.6729386146303</v>
       </c>
       <c r="C26" t="n">
-        <v>253.4173603285426</v>
+        <v>112.857671990829</v>
       </c>
       <c r="D26" t="n">
-        <v>244.3986643730705</v>
+        <v>255.66555961684</v>
       </c>
       <c r="E26" t="n">
-        <v>266.1408019429761</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
-        <v>285.3126180309532</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G26" t="n">
-        <v>287.2458859283757</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H26" t="n">
-        <v>204.7960009066857</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.26853965293476</v>
+        <v>71.92652010774087</v>
       </c>
       <c r="T26" t="n">
-        <v>97.41829605432082</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>127.6394221711678</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>208.9124206110399</v>
+        <v>220.1793158548094</v>
       </c>
       <c r="W26" t="n">
-        <v>234.2125200889969</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X26" t="n">
-        <v>253.5127783217435</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y26" t="n">
-        <v>264.9093761179422</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2640,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581938</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133632</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.02275424555791</v>
+        <v>68.28964948932732</v>
       </c>
       <c r="C28" t="n">
-        <v>43.22274909095839</v>
+        <v>54.4896443347278</v>
       </c>
       <c r="D28" t="n">
-        <v>26.84411348853678</v>
+        <v>38.11100873230619</v>
       </c>
       <c r="E28" t="n">
-        <v>25.79186334431623</v>
+        <v>37.05875858808564</v>
       </c>
       <c r="F28" t="n">
-        <v>26.25878767250254</v>
+        <v>37.52568291627195</v>
       </c>
       <c r="G28" t="n">
-        <v>42.53349039385037</v>
+        <v>53.80038563761978</v>
       </c>
       <c r="H28" t="n">
-        <v>33.08185801654079</v>
+        <v>44.3487532603102</v>
       </c>
       <c r="I28" t="n">
-        <v>18.06395320137014</v>
+        <v>29.33084844513955</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>23.32950281978745</v>
+        <v>34.59639806355686</v>
       </c>
       <c r="S28" t="n">
-        <v>86.87560421837119</v>
+        <v>98.14249946214061</v>
       </c>
       <c r="T28" t="n">
-        <v>106.1501029004998</v>
+        <v>117.4169981442692</v>
       </c>
       <c r="U28" t="n">
-        <v>159.621276363813</v>
+        <v>170.8881716075824</v>
       </c>
       <c r="V28" t="n">
-        <v>133.4308906451835</v>
+        <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>158.5977767157968</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X28" t="n">
-        <v>104.2428787115999</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
-        <v>95.11774646766756</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2801,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
@@ -2852,13 +2852,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>222.7853087525689</v>
+        <v>203.4850505198217</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2877,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>130.9922385581938</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.5364309356094</v>
+        <v>248.7898580267162</v>
       </c>
       <c r="C32" t="n">
-        <v>239.5477478932911</v>
+        <v>236.8011749843979</v>
       </c>
       <c r="D32" t="n">
-        <v>230.5290519378191</v>
+        <v>227.7824790289259</v>
       </c>
       <c r="E32" t="n">
-        <v>252.2711895077246</v>
+        <v>249.5246165988314</v>
       </c>
       <c r="F32" t="n">
-        <v>271.4430055957018</v>
+        <v>268.6964326868086</v>
       </c>
       <c r="G32" t="n">
-        <v>273.3762734931244</v>
+        <v>270.6297005842312</v>
       </c>
       <c r="H32" t="n">
-        <v>190.9263884714343</v>
+        <v>188.1798155625411</v>
       </c>
       <c r="I32" t="n">
-        <v>32.52235361606239</v>
+        <v>29.77578070716919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.79001242872002</v>
+        <v>44.04343951982682</v>
       </c>
       <c r="T32" t="n">
-        <v>83.54868361906938</v>
+        <v>80.80211071017618</v>
       </c>
       <c r="U32" t="n">
-        <v>113.7698097359163</v>
+        <v>111.0232368270231</v>
       </c>
       <c r="V32" t="n">
-        <v>195.0428081757885</v>
+        <v>192.2962352668953</v>
       </c>
       <c r="W32" t="n">
-        <v>220.3429076537454</v>
+        <v>217.5963347448522</v>
       </c>
       <c r="X32" t="n">
-        <v>239.643165886492</v>
+        <v>236.8965929775988</v>
       </c>
       <c r="Y32" t="n">
-        <v>251.0397636826908</v>
+        <v>248.2931907737976</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>84.37298759326552</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3159,7 +3159,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.15314181030647</v>
+        <v>40.40656890141327</v>
       </c>
       <c r="C34" t="n">
-        <v>29.35313665570695</v>
+        <v>26.60656374681375</v>
       </c>
       <c r="D34" t="n">
-        <v>12.97450105328534</v>
+        <v>10.22792814439214</v>
       </c>
       <c r="E34" t="n">
-        <v>11.92225090906479</v>
+        <v>9.175678000171587</v>
       </c>
       <c r="F34" t="n">
-        <v>12.3891752372511</v>
+        <v>9.642602328357896</v>
       </c>
       <c r="G34" t="n">
-        <v>28.66387795859893</v>
+        <v>25.91730504970573</v>
       </c>
       <c r="H34" t="n">
-        <v>19.21224558128935</v>
+        <v>16.46567267239615</v>
       </c>
       <c r="I34" t="n">
-        <v>4.1943407661187</v>
+        <v>1.4477678572255</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.45989038453601</v>
+        <v>6.71331747564281</v>
       </c>
       <c r="S34" t="n">
-        <v>73.00599178311975</v>
+        <v>70.25941887422655</v>
       </c>
       <c r="T34" t="n">
-        <v>92.28049046524839</v>
+        <v>89.53391755635519</v>
       </c>
       <c r="U34" t="n">
-        <v>145.7516639285616</v>
+        <v>143.0050910196684</v>
       </c>
       <c r="V34" t="n">
-        <v>119.5612782099321</v>
+        <v>116.8147053010389</v>
       </c>
       <c r="W34" t="n">
-        <v>144.7281642805453</v>
+        <v>141.9815913716521</v>
       </c>
       <c r="X34" t="n">
-        <v>90.37326627634843</v>
+        <v>87.62669336745523</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.24813403241612</v>
+        <v>78.50156112352292</v>
       </c>
     </row>
     <row r="35">
@@ -3348,7 +3348,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>122.8847593541868</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
@@ -3405,7 +3405,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>224.3372187935198</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -3639,7 +3639,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
         <v>238.9027100790231</v>
@@ -3648,7 +3648,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.5961130869169</v>
+        <v>176.0306218014126</v>
       </c>
     </row>
     <row r="40">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>143.259757067945</v>
       </c>
       <c r="C42" t="n">
-        <v>145.5211447459511</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -3986,7 +3986,7 @@
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404749</v>
       </c>
       <c r="G44" t="n">
         <v>245.8138815378969</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349183</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
         <v>55.986291663842</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4116,7 +4116,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>224.3372187935198</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.8699404009327</v>
+        <v>62.13563674553903</v>
       </c>
       <c r="C2" t="n">
-        <v>60.93618173374007</v>
+        <v>62.13563674553903</v>
       </c>
       <c r="D2" t="n">
-        <v>60.93618173374007</v>
+        <v>62.13563674553903</v>
       </c>
       <c r="E2" t="n">
-        <v>60.93618173374007</v>
+        <v>62.13563674553903</v>
       </c>
       <c r="F2" t="n">
-        <v>50.82539508431445</v>
+        <v>52.02485009611341</v>
       </c>
       <c r="G2" t="n">
-        <v>38.76181257890649</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="H2" t="n">
-        <v>38.76181257890649</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="I2" t="n">
-        <v>38.76181257890649</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="J2" t="n">
-        <v>38.76181257890649</v>
+        <v>111.9598118635111</v>
       </c>
       <c r="K2" t="n">
-        <v>278.9021846236893</v>
+        <v>352.1001839082938</v>
       </c>
       <c r="L2" t="n">
-        <v>626.7875577086355</v>
+        <v>699.9855569932402</v>
       </c>
       <c r="M2" t="n">
-        <v>1020.026723961724</v>
+        <v>1093.224723246328</v>
       </c>
       <c r="N2" t="n">
-        <v>1398.358082649439</v>
+        <v>1370.469644919848</v>
       </c>
       <c r="O2" t="n">
-        <v>1703.362667122273</v>
+        <v>1675.474229392682</v>
       </c>
       <c r="P2" t="n">
-        <v>1843.658375258787</v>
+        <v>1903.631125848735</v>
       </c>
       <c r="Q2" t="n">
-        <v>1938.090628945324</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R2" t="n">
-        <v>1847.452342441178</v>
+        <v>1907.425093031126</v>
       </c>
       <c r="S2" t="n">
-        <v>1660.223367071531</v>
+        <v>1720.19611766148</v>
       </c>
       <c r="T2" t="n">
-        <v>1612.48547582162</v>
+        <v>1495.837171392491</v>
       </c>
       <c r="U2" t="n">
-        <v>1612.48547582162</v>
+        <v>1240.951835106485</v>
       </c>
       <c r="V2" t="n">
-        <v>1612.48547582162</v>
+        <v>1240.951835106485</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.48547582162</v>
+        <v>1231.751172166227</v>
       </c>
       <c r="X2" t="n">
-        <v>1230.455335343114</v>
+        <v>849.7210316877201</v>
       </c>
       <c r="Y2" t="n">
-        <v>836.9134799189519</v>
+        <v>456.1791762635582</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.3709003219052</v>
+        <v>655.8517300659084</v>
       </c>
       <c r="C3" t="n">
-        <v>756.3709003219052</v>
+        <v>494.1480573068631</v>
       </c>
       <c r="D3" t="n">
-        <v>617.5322633121173</v>
+        <v>355.3094202970752</v>
       </c>
       <c r="E3" t="n">
-        <v>470.5042533689885</v>
+        <v>208.2814103539464</v>
       </c>
       <c r="F3" t="n">
-        <v>335.8104553188629</v>
+        <v>208.2814103539464</v>
       </c>
       <c r="G3" t="n">
-        <v>207.0819553421475</v>
+        <v>208.2814103539464</v>
       </c>
       <c r="H3" t="n">
-        <v>107.1440978888455</v>
+        <v>108.3435529006445</v>
       </c>
       <c r="I3" t="n">
-        <v>38.76181257890649</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="J3" t="n">
-        <v>99.01595911201264</v>
+        <v>100.2154141238116</v>
       </c>
       <c r="K3" t="n">
-        <v>99.01595911201264</v>
+        <v>260.4875436357995</v>
       </c>
       <c r="L3" t="n">
-        <v>464.8378042821283</v>
+        <v>626.3093888059151</v>
       </c>
       <c r="M3" t="n">
-        <v>944.515234946096</v>
+        <v>1111.342742316142</v>
       </c>
       <c r="N3" t="n">
-        <v>1424.192665610064</v>
+        <v>1605.863428751122</v>
       </c>
       <c r="O3" t="n">
-        <v>1780.31899915973</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="P3" t="n">
-        <v>1780.31899915973</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="Q3" t="n">
-        <v>1938.090628945324</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R3" t="n">
-        <v>1938.090628945324</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="S3" t="n">
-        <v>1938.090628945324</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="T3" t="n">
-        <v>1938.090628945324</v>
+        <v>1809.378275701258</v>
       </c>
       <c r="U3" t="n">
-        <v>1775.940148894149</v>
+        <v>1675.420978638152</v>
       </c>
       <c r="V3" t="n">
-        <v>1547.544526342483</v>
+        <v>1447.025356086486</v>
       </c>
       <c r="W3" t="n">
-        <v>1306.228657575793</v>
+        <v>1205.709487319796</v>
       </c>
       <c r="X3" t="n">
-        <v>1108.311669453587</v>
+        <v>1007.79249919759</v>
       </c>
       <c r="Y3" t="n">
-        <v>915.7903431031662</v>
+        <v>815.2711728471693</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="C4" t="n">
-        <v>403.8999585756522</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="D4" t="n">
-        <v>250.8280654034149</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="E4" t="n">
-        <v>98.81905116473376</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="F4" t="n">
-        <v>98.81905116473376</v>
+        <v>419.539857862415</v>
       </c>
       <c r="G4" t="n">
-        <v>98.81905116473376</v>
+        <v>259.3911513972589</v>
       </c>
       <c r="H4" t="n">
-        <v>98.81905116473376</v>
+        <v>100.0185061765327</v>
       </c>
       <c r="I4" t="n">
-        <v>98.81905116473376</v>
+        <v>100.0185061765327</v>
       </c>
       <c r="J4" t="n">
-        <v>38.76181257890649</v>
+        <v>39.96126759070545</v>
       </c>
       <c r="K4" t="n">
-        <v>72.3660003235499</v>
+        <v>73.56545533534886</v>
       </c>
       <c r="L4" t="n">
-        <v>172.9730797238094</v>
+        <v>174.1725347356084</v>
       </c>
       <c r="M4" t="n">
-        <v>290.9665858514111</v>
+        <v>292.1660408632101</v>
       </c>
       <c r="N4" t="n">
-        <v>409.3889276010115</v>
+        <v>410.5883826128104</v>
       </c>
       <c r="O4" t="n">
-        <v>507.8525740967012</v>
+        <v>509.0520291085001</v>
       </c>
       <c r="P4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="Q4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="R4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="S4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="T4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="U4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="V4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="W4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="X4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="Y4" t="n">
-        <v>570.8210578248389</v>
+        <v>572.0205128366379</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>848.9590798826018</v>
+        <v>1604.019840017253</v>
       </c>
       <c r="C5" t="n">
-        <v>467.0253212154091</v>
+        <v>1222.08608135006</v>
       </c>
       <c r="D5" t="n">
-        <v>467.0253212154091</v>
+        <v>849.2621165772837</v>
       </c>
       <c r="E5" t="n">
-        <v>467.0253212154091</v>
+        <v>466.1760407859431</v>
       </c>
       <c r="F5" t="n">
-        <v>52.87413052557945</v>
+        <v>52.0248500961134</v>
       </c>
       <c r="G5" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="H5" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="I5" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J5" t="n">
-        <v>112.8090922929771</v>
+        <v>111.9598118635111</v>
       </c>
       <c r="K5" t="n">
-        <v>352.9494643377599</v>
+        <v>352.1001839082938</v>
       </c>
       <c r="L5" t="n">
-        <v>700.8348374227062</v>
+        <v>699.9855569932402</v>
       </c>
       <c r="M5" t="n">
-        <v>1094.074003675794</v>
+        <v>1093.224723246328</v>
       </c>
       <c r="N5" t="n">
-        <v>1412.93366639315</v>
+        <v>1471.556081934044</v>
       </c>
       <c r="O5" t="n">
-        <v>1717.938250865984</v>
+        <v>1776.560666406878</v>
       </c>
       <c r="P5" t="n">
-        <v>1946.095147322038</v>
+        <v>1903.631125848735</v>
       </c>
       <c r="Q5" t="n">
-        <v>2040.527401008575</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R5" t="n">
-        <v>1949.889114504428</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="S5" t="n">
-        <v>1949.889114504428</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="T5" t="n">
-        <v>1949.889114504428</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="U5" t="n">
-        <v>1949.889114504428</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="V5" t="n">
-        <v>1949.889114504428</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.889114504428</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="X5" t="n">
-        <v>1567.858974025921</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="Y5" t="n">
-        <v>1174.317118601759</v>
+        <v>1998.063379535272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>806.2995825510475</v>
+        <v>919.2740280927495</v>
       </c>
       <c r="C6" t="n">
-        <v>644.5959097920022</v>
+        <v>757.5703553337042</v>
       </c>
       <c r="D6" t="n">
-        <v>505.7572727822143</v>
+        <v>618.7317183239163</v>
       </c>
       <c r="E6" t="n">
-        <v>358.7292628390855</v>
+        <v>471.7037083807875</v>
       </c>
       <c r="F6" t="n">
-        <v>237.9213333068259</v>
+        <v>337.0099103306618</v>
       </c>
       <c r="G6" t="n">
-        <v>109.1928333301105</v>
+        <v>208.2814103539464</v>
       </c>
       <c r="H6" t="n">
-        <v>109.1928333301105</v>
+        <v>108.3435529006445</v>
       </c>
       <c r="I6" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J6" t="n">
-        <v>101.0646945532776</v>
+        <v>100.2154141238116</v>
       </c>
       <c r="K6" t="n">
-        <v>330.5552471134663</v>
+        <v>329.7059666840003</v>
       </c>
       <c r="L6" t="n">
-        <v>330.5552471134663</v>
+        <v>695.527811854116</v>
       </c>
       <c r="M6" t="n">
-        <v>815.5886006236927</v>
+        <v>695.527811854116</v>
       </c>
       <c r="N6" t="n">
-        <v>1320.619132373315</v>
+        <v>1145.99587968983</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.659851947283</v>
+        <v>1538.19583047398</v>
       </c>
       <c r="P6" t="n">
-        <v>1882.75577122298</v>
+        <v>1840.291749749678</v>
       </c>
       <c r="Q6" t="n">
-        <v>2040.527401008575</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R6" t="n">
-        <v>2040.527401008575</v>
+        <v>1938.279110630218</v>
       </c>
       <c r="S6" t="n">
-        <v>2040.527401008575</v>
+        <v>1935.007054148587</v>
       </c>
       <c r="T6" t="n">
-        <v>1851.84229717456</v>
+        <v>1746.321950314572</v>
       </c>
       <c r="U6" t="n">
-        <v>1633.34750477287</v>
+        <v>1746.321950314572</v>
       </c>
       <c r="V6" t="n">
-        <v>1404.951882221204</v>
+        <v>1517.926327762906</v>
       </c>
       <c r="W6" t="n">
-        <v>1163.636013454514</v>
+        <v>1276.610458996216</v>
       </c>
       <c r="X6" t="n">
-        <v>965.7190253323084</v>
+        <v>1078.69347087401</v>
       </c>
       <c r="Y6" t="n">
-        <v>965.7190253323084</v>
+        <v>1078.69347087401</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="C7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="D7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="E7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="F7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="G7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="H7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="I7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="K7" t="n">
-        <v>74.41473576481491</v>
+        <v>73.56545533534884</v>
       </c>
       <c r="L7" t="n">
-        <v>175.0218151650744</v>
+        <v>174.1725347356083</v>
       </c>
       <c r="M7" t="n">
-        <v>293.0153212926762</v>
+        <v>292.1660408632101</v>
       </c>
       <c r="N7" t="n">
-        <v>411.4376630422765</v>
+        <v>410.5883826128104</v>
       </c>
       <c r="O7" t="n">
-        <v>509.9013095379662</v>
+        <v>509.0520291085001</v>
       </c>
       <c r="P7" t="n">
-        <v>572.869793266104</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="Q7" t="n">
-        <v>572.869793266104</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="R7" t="n">
-        <v>572.869793266104</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="S7" t="n">
-        <v>572.869793266104</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="T7" t="n">
-        <v>572.869793266104</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="U7" t="n">
-        <v>572.869793266104</v>
+        <v>572.0205128366379</v>
       </c>
       <c r="V7" t="n">
-        <v>558.2194136073965</v>
+        <v>326.1176690733063</v>
       </c>
       <c r="W7" t="n">
-        <v>272.0630121247957</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="X7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.81054802017149</v>
+        <v>39.96126759070544</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1520.441974266153</v>
+        <v>1616.530979037796</v>
       </c>
       <c r="C8" t="n">
-        <v>1520.441974266153</v>
+        <v>1234.597220370603</v>
       </c>
       <c r="D8" t="n">
-        <v>1520.441974266153</v>
+        <v>1234.597220370603</v>
       </c>
       <c r="E8" t="n">
-        <v>1377.917906530736</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y8" t="n">
-        <v>1520.441974266153</v>
+        <v>2010.574518555815</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>852.9547312933042</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>691.251058534259</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>552.412421524471</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>405.3844115813423</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U9" t="n">
-        <v>1541.233421836997</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V9" t="n">
-        <v>1312.837799285331</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="W9" t="n">
-        <v>1243.393045765931</v>
+        <v>1428.818387999268</v>
       </c>
       <c r="X9" t="n">
-        <v>1045.476057643725</v>
+        <v>1230.901399877062</v>
       </c>
       <c r="Y9" t="n">
-        <v>852.9547312933042</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>360.3737387508193</v>
+        <v>404.4675318088119</v>
       </c>
       <c r="D10" t="n">
-        <v>360.3737387508193</v>
+        <v>404.4675318088119</v>
       </c>
       <c r="E10" t="n">
-        <v>210.9440047333492</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="F10" t="n">
         <v>210.9440047333492</v>
@@ -4987,25 +4987,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1270.599276189905</v>
+        <v>1059.098575388618</v>
       </c>
       <c r="C11" t="n">
-        <v>985.3960999156443</v>
+        <v>1059.098575388618</v>
       </c>
       <c r="D11" t="n">
-        <v>985.3960999156443</v>
+        <v>1059.098575388618</v>
       </c>
       <c r="E11" t="n">
-        <v>687.3409624146832</v>
+        <v>774.7184015096318</v>
       </c>
       <c r="F11" t="n">
-        <v>369.9203541177858</v>
+        <v>470.9727568347098</v>
       </c>
       <c r="G11" t="n">
-        <v>50.54694996490592</v>
+        <v>165.2743163038053</v>
       </c>
       <c r="H11" t="n">
-        <v>50.54694996490592</v>
+        <v>112.1093223117364</v>
       </c>
       <c r="I11" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J11" t="n">
-        <v>217.3511380410244</v>
+        <v>121.6962138082455</v>
       </c>
       <c r="K11" t="n">
-        <v>552.29715388912</v>
+        <v>361.8365858530283</v>
       </c>
       <c r="L11" t="n">
-        <v>994.9881707773791</v>
+        <v>761.0937902681328</v>
       </c>
       <c r="M11" t="n">
-        <v>1388.227337030467</v>
+        <v>1262.541432170432</v>
       </c>
       <c r="N11" t="n">
-        <v>1861.364339521496</v>
+        <v>1749.081266507358</v>
       </c>
       <c r="O11" t="n">
-        <v>2166.36892399433</v>
+        <v>2054.085850980192</v>
       </c>
       <c r="P11" t="n">
-        <v>2432.915244558759</v>
+        <v>2282.242747436245</v>
       </c>
       <c r="Q11" t="n">
-        <v>2527.347498245296</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="R11" t="n">
-        <v>2527.347498245296</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="S11" t="n">
-        <v>2527.347498245296</v>
+        <v>2408.060047417255</v>
       </c>
       <c r="T11" t="n">
-        <v>2399.719134369239</v>
+        <v>2294.106647163173</v>
       </c>
       <c r="U11" t="n">
-        <v>2241.564380476165</v>
+        <v>2149.626856892075</v>
       </c>
       <c r="V11" t="n">
-        <v>2150.023064431796</v>
+        <v>2149.626856892075</v>
       </c>
       <c r="W11" t="n">
-        <v>2150.023064431796</v>
+        <v>1897.497472764583</v>
       </c>
       <c r="X11" t="n">
-        <v>1864.723506346222</v>
+        <v>1625.872878300984</v>
       </c>
       <c r="Y11" t="n">
-        <v>1567.912233314992</v>
+        <v>1342.736568891729</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>888.0145975450339</v>
+        <v>929.0104300374838</v>
       </c>
       <c r="C12" t="n">
-        <v>726.3109247859886</v>
+        <v>767.3067572784386</v>
       </c>
       <c r="D12" t="n">
-        <v>587.4722877762007</v>
+        <v>628.4681202686506</v>
       </c>
       <c r="E12" t="n">
-        <v>440.4442778330719</v>
+        <v>481.4401103255219</v>
       </c>
       <c r="F12" t="n">
-        <v>347.5955927048623</v>
+        <v>346.7463122753962</v>
       </c>
       <c r="G12" t="n">
-        <v>218.8670927281469</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H12" t="n">
-        <v>118.9292352748449</v>
+        <v>118.0799548453789</v>
       </c>
       <c r="I12" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J12" t="n">
-        <v>110.8010964980121</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K12" t="n">
-        <v>340.2916490582007</v>
+        <v>339.4423686287347</v>
       </c>
       <c r="L12" t="n">
-        <v>706.1134942283163</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.146847738543</v>
+        <v>1121.550330803429</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.412493861665</v>
+        <v>1632.815976926551</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.612444645816</v>
+        <v>2025.015927710702</v>
       </c>
       <c r="P12" t="n">
-        <v>2396.708363921513</v>
+        <v>2327.111846986399</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.347498245296</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="R12" t="n">
-        <v>2467.563229340241</v>
+        <v>2425.099207866939</v>
       </c>
       <c r="S12" t="n">
-        <v>2314.763742352982</v>
+        <v>2272.299720879679</v>
       </c>
       <c r="T12" t="n">
-        <v>2126.078638518967</v>
+        <v>2083.614617045665</v>
       </c>
       <c r="U12" t="n">
-        <v>1907.583846117277</v>
+        <v>1865.119824643975</v>
       </c>
       <c r="V12" t="n">
-        <v>1679.188223565611</v>
+        <v>1720.184056058061</v>
       </c>
       <c r="W12" t="n">
-        <v>1437.872354798921</v>
+        <v>1478.868187291371</v>
       </c>
       <c r="X12" t="n">
-        <v>1239.955366676716</v>
+        <v>1280.951199169166</v>
       </c>
       <c r="Y12" t="n">
-        <v>1047.434040326295</v>
+        <v>1088.429872818745</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>344.9420243969028</v>
+        <v>376.5318176047464</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9420243969028</v>
+        <v>317.3213940813341</v>
       </c>
       <c r="D13" t="n">
-        <v>288.6007136175977</v>
+        <v>274.6550469240043</v>
       </c>
       <c r="E13" t="n">
-        <v>288.6007136175977</v>
+        <v>233.0515787002306</v>
       </c>
       <c r="F13" t="n">
-        <v>232.850641036307</v>
+        <v>190.9764697409152</v>
       </c>
       <c r="G13" t="n">
-        <v>160.6614747970892</v>
+        <v>132.4622671236726</v>
       </c>
       <c r="H13" t="n">
-        <v>98.01941196929523</v>
+        <v>83.49516791785391</v>
       </c>
       <c r="I13" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J13" t="n">
-        <v>86.49049423024942</v>
+        <v>99.0440456466813</v>
       </c>
       <c r="K13" t="n">
-        <v>214.9003257782057</v>
+        <v>240.8567090405356</v>
       </c>
       <c r="L13" t="n">
-        <v>410.313048981778</v>
+        <v>449.6722640900059</v>
       </c>
       <c r="M13" t="n">
-        <v>623.1121989126925</v>
+        <v>675.8742458668185</v>
       </c>
       <c r="N13" t="n">
-        <v>836.3401844656057</v>
+        <v>902.5050632656296</v>
       </c>
       <c r="O13" t="n">
-        <v>1029.609474764608</v>
+        <v>1109.17718541053</v>
       </c>
       <c r="P13" t="n">
-        <v>1187.383602296059</v>
+        <v>1280.354144787879</v>
       </c>
       <c r="Q13" t="n">
-        <v>1244.418797845852</v>
+        <v>1350.79217218357</v>
       </c>
       <c r="R13" t="n">
-        <v>1191.627598853162</v>
+        <v>1311.675936812856</v>
       </c>
       <c r="S13" t="n">
-        <v>1074.648418649782</v>
+        <v>1208.371720231451</v>
       </c>
       <c r="T13" t="n">
-        <v>938.2000478583932</v>
+        <v>1185.023478547107</v>
       </c>
       <c r="U13" t="n">
-        <v>747.7403907404253</v>
+        <v>1008.238785051114</v>
       </c>
       <c r="V13" t="n">
-        <v>583.73566869178</v>
+        <v>857.9090266244442</v>
       </c>
       <c r="W13" t="n">
-        <v>394.3098496021108</v>
+        <v>682.1581711567508</v>
       </c>
       <c r="X13" t="n">
-        <v>394.3098496021108</v>
+        <v>561.311253067034</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.3098496021108</v>
+        <v>449.6816402742188</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.499136980905</v>
+        <v>1205.940347378121</v>
       </c>
       <c r="C14" t="n">
-        <v>1440.676662973078</v>
+        <v>1205.940347378121</v>
       </c>
       <c r="D14" t="n">
-        <v>1175.963982859668</v>
+        <v>943.5219286202523</v>
       </c>
       <c r="E14" t="n">
-        <v>889.2895476251406</v>
+        <v>659.1417547412666</v>
       </c>
       <c r="F14" t="n">
-        <v>583.249641594677</v>
+        <v>355.3961100663444</v>
       </c>
       <c r="G14" t="n">
-        <v>275.2569397082307</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="H14" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="I14" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J14" t="n">
-        <v>122.5454942377116</v>
+        <v>121.6962138082455</v>
       </c>
       <c r="K14" t="n">
-        <v>462.4182553201881</v>
+        <v>470.045061502239</v>
       </c>
       <c r="L14" t="n">
-        <v>810.3036284051343</v>
+        <v>926.138910236396</v>
       </c>
       <c r="M14" t="n">
-        <v>1203.542794658222</v>
+        <v>1319.378076489484</v>
       </c>
       <c r="N14" t="n">
-        <v>1687.834023440583</v>
+        <v>1729.707375460861</v>
       </c>
       <c r="O14" t="n">
-        <v>2098.798478008061</v>
+        <v>2034.711959933695</v>
       </c>
       <c r="P14" t="n">
-        <v>2326.955374464114</v>
+        <v>2371.077332038959</v>
       </c>
       <c r="Q14" t="n">
-        <v>2527.347498245296</v>
+        <v>2465.509585725496</v>
       </c>
       <c r="R14" t="n">
-        <v>2527.347498245296</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="S14" t="n">
-        <v>2527.347498245296</v>
+        <v>2408.060047417255</v>
       </c>
       <c r="T14" t="n">
-        <v>2411.099836635673</v>
+        <v>2408.060047417255</v>
       </c>
       <c r="U14" t="n">
-        <v>2264.325785009033</v>
+        <v>2263.580257146156</v>
       </c>
       <c r="V14" t="n">
-        <v>2035.45779556434</v>
+        <v>2037.006529057003</v>
       </c>
       <c r="W14" t="n">
-        <v>2035.45779556434</v>
+        <v>2037.006529057003</v>
       </c>
       <c r="X14" t="n">
-        <v>2035.45779556434</v>
+        <v>1772.714650290487</v>
       </c>
       <c r="Y14" t="n">
-        <v>2000.431391839558</v>
+        <v>1489.578340881233</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>929.8597104669499</v>
+        <v>929.0104300374838</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1560377079046</v>
+        <v>767.3067572784386</v>
       </c>
       <c r="D15" t="n">
-        <v>629.3174006981167</v>
+        <v>628.4681202686506</v>
       </c>
       <c r="E15" t="n">
-        <v>482.2893907549879</v>
+        <v>481.4401103255219</v>
       </c>
       <c r="F15" t="n">
-        <v>347.5955927048623</v>
+        <v>346.7463122753962</v>
       </c>
       <c r="G15" t="n">
-        <v>218.8670927281469</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H15" t="n">
-        <v>118.9292352748449</v>
+        <v>118.0799548453789</v>
       </c>
       <c r="I15" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J15" t="n">
-        <v>83.6686010362009</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K15" t="n">
-        <v>313.1591535963896</v>
+        <v>339.4423686287347</v>
       </c>
       <c r="L15" t="n">
-        <v>678.9809987665052</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M15" t="n">
-        <v>1164.014352276732</v>
+        <v>1190.297567309077</v>
       </c>
       <c r="N15" t="n">
-        <v>1675.279998399854</v>
+        <v>1701.563213432199</v>
       </c>
       <c r="O15" t="n">
-        <v>2067.479949184004</v>
+        <v>2093.76316421635</v>
       </c>
       <c r="P15" t="n">
-        <v>2369.575868459702</v>
+        <v>2395.859083492047</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.347498245296</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="R15" t="n">
-        <v>2467.563229340241</v>
+        <v>2425.099207866939</v>
       </c>
       <c r="S15" t="n">
-        <v>2314.763742352982</v>
+        <v>2272.299720879679</v>
       </c>
       <c r="T15" t="n">
-        <v>2126.078638518967</v>
+        <v>2083.614617045665</v>
       </c>
       <c r="U15" t="n">
-        <v>1949.428959039193</v>
+        <v>1865.119824643975</v>
       </c>
       <c r="V15" t="n">
-        <v>1721.033336487527</v>
+        <v>1720.184056058061</v>
       </c>
       <c r="W15" t="n">
-        <v>1479.717467720837</v>
+        <v>1478.868187291371</v>
       </c>
       <c r="X15" t="n">
-        <v>1281.800479598632</v>
+        <v>1280.951199169166</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.279153248211</v>
+        <v>1088.429872818745</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>287.6718550373479</v>
+        <v>376.5318176047464</v>
       </c>
       <c r="C16" t="n">
-        <v>226.1671701583941</v>
+        <v>317.3213940813341</v>
       </c>
       <c r="D16" t="n">
-        <v>226.1671701583941</v>
+        <v>274.6550469240043</v>
       </c>
       <c r="E16" t="n">
-        <v>182.2694405790788</v>
+        <v>233.0515787002306</v>
       </c>
       <c r="F16" t="n">
-        <v>137.9000702642218</v>
+        <v>190.9764697409152</v>
       </c>
       <c r="G16" t="n">
-        <v>137.9000702642218</v>
+        <v>132.4622671236726</v>
       </c>
       <c r="H16" t="n">
-        <v>86.63870970286149</v>
+        <v>83.49516791785391</v>
       </c>
       <c r="I16" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J16" t="n">
-        <v>97.64472052158112</v>
+        <v>99.04404564668152</v>
       </c>
       <c r="K16" t="n">
-        <v>237.208778360869</v>
+        <v>240.8567090405357</v>
       </c>
       <c r="L16" t="n">
-        <v>443.7757278557731</v>
+        <v>449.672264090006</v>
       </c>
       <c r="M16" t="n">
-        <v>667.7291040780193</v>
+        <v>675.8742458668185</v>
       </c>
       <c r="N16" t="n">
-        <v>892.1113159222642</v>
+        <v>902.5050632656296</v>
       </c>
       <c r="O16" t="n">
-        <v>1096.534832512598</v>
+        <v>1109.17718541053</v>
       </c>
       <c r="P16" t="n">
-        <v>1265.463186335381</v>
+        <v>1280.354144787879</v>
       </c>
       <c r="Q16" t="n">
-        <v>1333.652608176506</v>
+        <v>1350.79217218357</v>
       </c>
       <c r="R16" t="n">
-        <v>1292.24211145025</v>
+        <v>1311.675936812856</v>
       </c>
       <c r="S16" t="n">
-        <v>1186.643633513303</v>
+        <v>1208.371720231451</v>
       </c>
       <c r="T16" t="n">
-        <v>1109.929084112958</v>
+        <v>1085.598313062037</v>
       </c>
       <c r="U16" t="n">
-        <v>930.8501292614237</v>
+        <v>908.8136195660445</v>
       </c>
       <c r="V16" t="n">
-        <v>778.2261094792121</v>
+        <v>758.4838611393745</v>
       </c>
       <c r="W16" t="n">
-        <v>600.1809926559772</v>
+        <v>582.7330056716811</v>
       </c>
       <c r="X16" t="n">
-        <v>477.0398132107189</v>
+        <v>561.3112530670343</v>
       </c>
       <c r="Y16" t="n">
-        <v>363.1159390623618</v>
+        <v>449.6816402742188</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1348.672256960067</v>
+        <v>1328.402764043477</v>
       </c>
       <c r="C17" t="n">
-        <v>1136.354467831195</v>
+        <v>1118.859290984193</v>
       </c>
       <c r="D17" t="n">
-        <v>933.1464725967378</v>
+        <v>918.425611819325</v>
       </c>
       <c r="E17" t="n">
-        <v>707.9767222411643</v>
+        <v>696.0301775333406</v>
       </c>
       <c r="F17" t="n">
-        <v>463.4415010896544</v>
+        <v>454.2692724514197</v>
       </c>
       <c r="G17" t="n">
-        <v>216.953484082162</v>
+        <v>210.5555715135165</v>
       </c>
       <c r="H17" t="n">
-        <v>53.7481792177902</v>
+        <v>50.12458271873506</v>
       </c>
       <c r="I17" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J17" t="n">
-        <v>122.5454942377116</v>
+        <v>121.6962138082455</v>
       </c>
       <c r="K17" t="n">
-        <v>370.4106149733147</v>
+        <v>361.8365858530283</v>
       </c>
       <c r="L17" t="n">
-        <v>718.2959880582609</v>
+        <v>878.6816778622858</v>
       </c>
       <c r="M17" t="n">
-        <v>1111.535154311349</v>
+        <v>1271.920844115374</v>
       </c>
       <c r="N17" t="n">
-        <v>1489.866512999065</v>
+        <v>1777.164607834972</v>
       </c>
       <c r="O17" t="n">
-        <v>1961.111709216406</v>
+        <v>2082.169192307806</v>
       </c>
       <c r="P17" t="n">
-        <v>2189.268605672459</v>
+        <v>2310.326088763859</v>
       </c>
       <c r="Q17" t="n">
-        <v>2449.941471103503</v>
+        <v>2404.758342450396</v>
       </c>
       <c r="R17" t="n">
-        <v>2527.347498245296</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="S17" t="n">
-        <v>2509.734492413969</v>
+        <v>2470.044787010256</v>
       </c>
       <c r="T17" t="n">
-        <v>2454.9915156833</v>
+        <v>2418.076126349176</v>
       </c>
       <c r="U17" t="n">
-        <v>2369.722148935614</v>
+        <v>2335.581075671079</v>
       </c>
       <c r="V17" t="n">
-        <v>2202.358844369875</v>
+        <v>2170.992087174929</v>
       </c>
       <c r="W17" t="n">
-        <v>2009.439883765796</v>
+        <v>1980.847442640439</v>
       </c>
       <c r="X17" t="n">
-        <v>1797.025712825609</v>
+        <v>1771.207587769841</v>
       </c>
       <c r="Y17" t="n">
-        <v>1573.099826939767</v>
+        <v>1550.056017953587</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>929.8597104669499</v>
+        <v>845.550576071731</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1560377079046</v>
+        <v>683.8469033126858</v>
       </c>
       <c r="D18" t="n">
-        <v>629.3174006981167</v>
+        <v>545.0082663028978</v>
       </c>
       <c r="E18" t="n">
-        <v>482.2893907549879</v>
+        <v>397.980256359769</v>
       </c>
       <c r="F18" t="n">
-        <v>347.5955927048623</v>
+        <v>346.7463122753962</v>
       </c>
       <c r="G18" t="n">
-        <v>218.8670927281469</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H18" t="n">
-        <v>118.9292352748449</v>
+        <v>118.0799548453789</v>
       </c>
       <c r="I18" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J18" t="n">
-        <v>83.6686010362009</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K18" t="n">
-        <v>313.1591535963896</v>
+        <v>339.4423686287347</v>
       </c>
       <c r="L18" t="n">
-        <v>678.9809987665052</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M18" t="n">
-        <v>1164.014352276732</v>
+        <v>1190.297567309077</v>
       </c>
       <c r="N18" t="n">
-        <v>1675.279998399854</v>
+        <v>1701.563213432199</v>
       </c>
       <c r="O18" t="n">
-        <v>2067.479949184004</v>
+        <v>2093.76316421635</v>
       </c>
       <c r="P18" t="n">
-        <v>2369.575868459702</v>
+        <v>2395.859083492047</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.347498245296</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="R18" t="n">
-        <v>2467.563229340241</v>
+        <v>2425.099207866939</v>
       </c>
       <c r="S18" t="n">
-        <v>2314.763742352982</v>
+        <v>2272.299720879679</v>
       </c>
       <c r="T18" t="n">
-        <v>2126.078638518967</v>
+        <v>2083.614617045665</v>
       </c>
       <c r="U18" t="n">
-        <v>1907.583846117277</v>
+        <v>1865.119824643975</v>
       </c>
       <c r="V18" t="n">
-        <v>1679.188223565611</v>
+        <v>1636.724202092309</v>
       </c>
       <c r="W18" t="n">
-        <v>1437.872354798921</v>
+        <v>1395.408333325619</v>
       </c>
       <c r="X18" t="n">
-        <v>1281.800479598632</v>
+        <v>1197.491345203413</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.279153248211</v>
+        <v>1004.970018852992</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="C19" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="D19" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="E19" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="F19" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="G19" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="H19" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="I19" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J19" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="K19" t="n">
-        <v>112.9777889694981</v>
+        <v>83.30185728008328</v>
       </c>
       <c r="L19" t="n">
-        <v>213.5848683697577</v>
+        <v>183.9089366803428</v>
       </c>
       <c r="M19" t="n">
-        <v>331.5783744973594</v>
+        <v>308.5345655111806</v>
       </c>
       <c r="N19" t="n">
-        <v>450.0007162469598</v>
+        <v>426.956907260781</v>
       </c>
       <c r="O19" t="n">
-        <v>548.4643627426494</v>
+        <v>525.4205537564707</v>
       </c>
       <c r="P19" t="n">
-        <v>611.4328464707872</v>
+        <v>588.3890374846085</v>
       </c>
       <c r="Q19" t="n">
-        <v>611.4328464707872</v>
+        <v>588.3890374846085</v>
       </c>
       <c r="R19" t="n">
-        <v>611.4328464707872</v>
+        <v>588.3890374846085</v>
       </c>
       <c r="S19" t="n">
-        <v>567.3390534127946</v>
+        <v>547.0695604962049</v>
       </c>
       <c r="T19" t="n">
-        <v>503.7760697667931</v>
+        <v>486.2808929197924</v>
       </c>
       <c r="U19" t="n">
-        <v>386.2017997942127</v>
+        <v>371.4809390168011</v>
       </c>
       <c r="V19" t="n">
-        <v>295.082464890955</v>
+        <v>283.1359201831326</v>
       </c>
       <c r="W19" t="n">
-        <v>178.5420329466738</v>
+        <v>169.3698043084405</v>
       </c>
       <c r="X19" t="n">
-        <v>116.9055383803693</v>
+        <v>110.507625811725</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.48634911096605</v>
+        <v>60.86275261191089</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1348.672256960067</v>
+        <v>1328.402764043477</v>
       </c>
       <c r="C20" t="n">
-        <v>1136.354467831194</v>
+        <v>1118.859290984193</v>
       </c>
       <c r="D20" t="n">
-        <v>933.1464725967369</v>
+        <v>918.4256118193256</v>
       </c>
       <c r="E20" t="n">
-        <v>707.9767222411633</v>
+        <v>696.0301775333412</v>
       </c>
       <c r="F20" t="n">
-        <v>463.4415010896535</v>
+        <v>454.2692724514203</v>
       </c>
       <c r="G20" t="n">
-        <v>216.9534840821611</v>
+        <v>210.555571513517</v>
       </c>
       <c r="H20" t="n">
-        <v>53.74817921779004</v>
+        <v>50.12458271873508</v>
       </c>
       <c r="I20" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J20" t="n">
-        <v>122.5454942377116</v>
+        <v>290.6559327325569</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6858662824943</v>
+        <v>530.7963047773396</v>
       </c>
       <c r="L20" t="n">
-        <v>710.5712393674405</v>
+        <v>878.6816778622858</v>
       </c>
       <c r="M20" t="n">
-        <v>1270.051017365035</v>
+        <v>1440.880563039685</v>
       </c>
       <c r="N20" t="n">
-        <v>1648.382376052751</v>
+        <v>1819.211921727401</v>
       </c>
       <c r="O20" t="n">
-        <v>2038.517736358198</v>
+        <v>2124.216506200235</v>
       </c>
       <c r="P20" t="n">
-        <v>2266.674632814251</v>
+        <v>2352.373402656288</v>
       </c>
       <c r="Q20" t="n">
-        <v>2527.347498245295</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="R20" t="n">
-        <v>2527.347498245295</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="S20" t="n">
-        <v>2509.734492413969</v>
+        <v>2470.044787010256</v>
       </c>
       <c r="T20" t="n">
-        <v>2454.9915156833</v>
+        <v>2418.076126349176</v>
       </c>
       <c r="U20" t="n">
-        <v>2369.722148935613</v>
+        <v>2335.581075671078</v>
       </c>
       <c r="V20" t="n">
-        <v>2202.358844369875</v>
+        <v>2170.992087174929</v>
       </c>
       <c r="W20" t="n">
-        <v>2009.439883765795</v>
+        <v>1980.847442640439</v>
       </c>
       <c r="X20" t="n">
-        <v>1797.025712825608</v>
+        <v>1771.207587769841</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.099826939766</v>
+        <v>1550.056017953587</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>929.8597104669499</v>
+        <v>845.550576071731</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1560377079046</v>
+        <v>767.3067572784386</v>
       </c>
       <c r="D21" t="n">
-        <v>629.3174006981167</v>
+        <v>628.4681202686506</v>
       </c>
       <c r="E21" t="n">
-        <v>482.2893907549879</v>
+        <v>481.4401103255219</v>
       </c>
       <c r="F21" t="n">
-        <v>347.5955927048623</v>
+        <v>346.7463122753962</v>
       </c>
       <c r="G21" t="n">
-        <v>218.8670927281469</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H21" t="n">
-        <v>118.9292352748449</v>
+        <v>118.0799548453789</v>
       </c>
       <c r="I21" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J21" t="n">
-        <v>110.8010964980121</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="K21" t="n">
-        <v>313.1591535963896</v>
+        <v>279.1882220956285</v>
       </c>
       <c r="L21" t="n">
-        <v>678.9809987665052</v>
+        <v>645.0100672657442</v>
       </c>
       <c r="M21" t="n">
-        <v>1164.014352276732</v>
+        <v>1130.043420775971</v>
       </c>
       <c r="N21" t="n">
-        <v>1675.279998399854</v>
+        <v>1641.309066899093</v>
       </c>
       <c r="O21" t="n">
-        <v>2067.479949184004</v>
+        <v>2033.509017683243</v>
       </c>
       <c r="P21" t="n">
-        <v>2369.575868459702</v>
+        <v>2335.604936958941</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.347498245296</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="R21" t="n">
-        <v>2467.563229340241</v>
+        <v>2425.099207866939</v>
       </c>
       <c r="S21" t="n">
-        <v>2314.763742352982</v>
+        <v>2272.299720879679</v>
       </c>
       <c r="T21" t="n">
-        <v>2126.078638518967</v>
+        <v>2083.614617045665</v>
       </c>
       <c r="U21" t="n">
-        <v>1907.583846117277</v>
+        <v>1865.119824643975</v>
       </c>
       <c r="V21" t="n">
-        <v>1679.188223565611</v>
+        <v>1636.724202092309</v>
       </c>
       <c r="W21" t="n">
-        <v>1479.717467720837</v>
+        <v>1395.408333325619</v>
       </c>
       <c r="X21" t="n">
-        <v>1281.800479598632</v>
+        <v>1197.491345203413</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.279153248211</v>
+        <v>1004.970018852992</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="C22" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="D22" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="E22" t="n">
-        <v>67.80352685408167</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="F22" t="n">
-        <v>67.80352685408167</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="G22" t="n">
-        <v>67.80352685408167</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="H22" t="n">
-        <v>67.80352685408167</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="I22" t="n">
-        <v>67.80352685408167</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J22" t="n">
-        <v>67.80352685408167</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="K22" t="n">
-        <v>101.4077145987251</v>
+        <v>83.30185728008328</v>
       </c>
       <c r="L22" t="n">
-        <v>202.0147939989846</v>
+        <v>183.9089366803428</v>
       </c>
       <c r="M22" t="n">
-        <v>320.0083001265863</v>
+        <v>301.9024428079445</v>
       </c>
       <c r="N22" t="n">
-        <v>438.4306418761867</v>
+        <v>420.3247845575449</v>
       </c>
       <c r="O22" t="n">
-        <v>536.8942883718764</v>
+        <v>518.7884310532346</v>
       </c>
       <c r="P22" t="n">
-        <v>611.4328464707872</v>
+        <v>581.7569147813724</v>
       </c>
       <c r="Q22" t="n">
-        <v>611.4328464707872</v>
+        <v>588.3890374846088</v>
       </c>
       <c r="R22" t="n">
-        <v>611.4328464707872</v>
+        <v>588.3890374846088</v>
       </c>
       <c r="S22" t="n">
-        <v>567.3390534127946</v>
+        <v>547.0695604962051</v>
       </c>
       <c r="T22" t="n">
-        <v>503.7760697667931</v>
+        <v>486.2808929197927</v>
       </c>
       <c r="U22" t="n">
-        <v>386.2017997942127</v>
+        <v>371.4809390168013</v>
       </c>
       <c r="V22" t="n">
-        <v>295.082464890955</v>
+        <v>283.1359201831327</v>
       </c>
       <c r="W22" t="n">
-        <v>178.5420329466738</v>
+        <v>169.3698043084405</v>
       </c>
       <c r="X22" t="n">
-        <v>116.9055383803693</v>
+        <v>110.5076258117251</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.48634911096605</v>
+        <v>60.86275261191092</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1348.672256960067</v>
+        <v>1328.402764043477</v>
       </c>
       <c r="C23" t="n">
-        <v>1136.354467831194</v>
+        <v>1118.859290984193</v>
       </c>
       <c r="D23" t="n">
-        <v>933.1464725967369</v>
+        <v>918.425611819325</v>
       </c>
       <c r="E23" t="n">
-        <v>707.9767222411633</v>
+        <v>696.0301775333406</v>
       </c>
       <c r="F23" t="n">
-        <v>463.4415010896535</v>
+        <v>454.2692724514197</v>
       </c>
       <c r="G23" t="n">
-        <v>216.9534840821611</v>
+        <v>210.5555715135165</v>
       </c>
       <c r="H23" t="n">
-        <v>53.74817921779004</v>
+        <v>50.12458271873509</v>
       </c>
       <c r="I23" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7861059822187</v>
+        <v>290.6559327325569</v>
       </c>
       <c r="K23" t="n">
-        <v>528.9264780270015</v>
+        <v>699.756023701651</v>
       </c>
       <c r="L23" t="n">
-        <v>876.8118511119478</v>
+        <v>1047.641396786597</v>
       </c>
       <c r="M23" t="n">
-        <v>1270.051017365036</v>
+        <v>1440.880563039685</v>
       </c>
       <c r="N23" t="n">
-        <v>1814.622987797258</v>
+        <v>1819.211921727401</v>
       </c>
       <c r="O23" t="n">
-        <v>2119.627572270093</v>
+        <v>2124.216506200235</v>
       </c>
       <c r="P23" t="n">
-        <v>2355.509217416965</v>
+        <v>2390.451223085457</v>
       </c>
       <c r="Q23" t="n">
-        <v>2449.941471103502</v>
+        <v>2484.883476771994</v>
       </c>
       <c r="R23" t="n">
-        <v>2527.347498245295</v>
+        <v>2484.883476771994</v>
       </c>
       <c r="S23" t="n">
-        <v>2509.734492413969</v>
+        <v>2470.044787010256</v>
       </c>
       <c r="T23" t="n">
-        <v>2454.9915156833</v>
+        <v>2418.076126349176</v>
       </c>
       <c r="U23" t="n">
-        <v>2369.722148935613</v>
+        <v>2335.581075671078</v>
       </c>
       <c r="V23" t="n">
-        <v>2202.358844369875</v>
+        <v>2170.992087174928</v>
       </c>
       <c r="W23" t="n">
-        <v>2009.439883765795</v>
+        <v>1980.847442640438</v>
       </c>
       <c r="X23" t="n">
-        <v>1797.025712825608</v>
+        <v>1771.20758776984</v>
       </c>
       <c r="Y23" t="n">
-        <v>1573.099826939766</v>
+        <v>1550.056017953587</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>929.8597104669499</v>
+        <v>845.5505760717315</v>
       </c>
       <c r="C24" t="n">
-        <v>768.1560377079046</v>
+        <v>683.8469033126862</v>
       </c>
       <c r="D24" t="n">
-        <v>629.3174006981167</v>
+        <v>628.4681202686506</v>
       </c>
       <c r="E24" t="n">
-        <v>482.2893907549879</v>
+        <v>481.4401103255219</v>
       </c>
       <c r="F24" t="n">
-        <v>347.5955927048623</v>
+        <v>346.7463122753962</v>
       </c>
       <c r="G24" t="n">
-        <v>218.8670927281469</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H24" t="n">
-        <v>118.9292352748449</v>
+        <v>118.0799548453789</v>
       </c>
       <c r="I24" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="J24" t="n">
-        <v>110.8010964980121</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K24" t="n">
-        <v>313.1591535963896</v>
+        <v>339.4423686287347</v>
       </c>
       <c r="L24" t="n">
-        <v>678.9809987665052</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M24" t="n">
-        <v>1164.014352276732</v>
+        <v>1121.550330803429</v>
       </c>
       <c r="N24" t="n">
-        <v>1675.279998399854</v>
+        <v>1632.815976926551</v>
       </c>
       <c r="O24" t="n">
-        <v>2067.479949184004</v>
+        <v>2025.015927710702</v>
       </c>
       <c r="P24" t="n">
-        <v>2369.575868459702</v>
+        <v>2327.1118469864</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.347498245296</v>
+        <v>2484.883476771994</v>
       </c>
       <c r="R24" t="n">
-        <v>2467.563229340241</v>
+        <v>2425.099207866939</v>
       </c>
       <c r="S24" t="n">
-        <v>2314.763742352982</v>
+        <v>2272.29972087968</v>
       </c>
       <c r="T24" t="n">
-        <v>2126.078638518967</v>
+        <v>2083.614617045665</v>
       </c>
       <c r="U24" t="n">
-        <v>1907.583846117277</v>
+        <v>1865.119824643975</v>
       </c>
       <c r="V24" t="n">
-        <v>1679.188223565611</v>
+        <v>1636.724202092309</v>
       </c>
       <c r="W24" t="n">
-        <v>1479.717467720837</v>
+        <v>1395.408333325619</v>
       </c>
       <c r="X24" t="n">
-        <v>1281.800479598632</v>
+        <v>1197.491345203414</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.279153248211</v>
+        <v>1004.970018852992</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="C25" t="n">
-        <v>50.54694996490592</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="D25" t="n">
-        <v>66.76179921130331</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="E25" t="n">
-        <v>66.76179921130331</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="F25" t="n">
-        <v>66.76179921130331</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="G25" t="n">
-        <v>66.76179921130331</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="H25" t="n">
-        <v>66.76179921130331</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="I25" t="n">
-        <v>66.76179921130331</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="J25" t="n">
-        <v>66.76179921130331</v>
+        <v>56.32979223867632</v>
       </c>
       <c r="K25" t="n">
-        <v>100.3659869559467</v>
+        <v>89.93397998331973</v>
       </c>
       <c r="L25" t="n">
-        <v>200.9730663562062</v>
+        <v>190.5410593835792</v>
       </c>
       <c r="M25" t="n">
-        <v>318.966572483808</v>
+        <v>308.534565511181</v>
       </c>
       <c r="N25" t="n">
-        <v>437.3889142334083</v>
+        <v>426.9569072607813</v>
       </c>
       <c r="O25" t="n">
-        <v>535.8525607290981</v>
+        <v>525.420553756471</v>
       </c>
       <c r="P25" t="n">
-        <v>598.8210444572359</v>
+        <v>588.3890374846088</v>
       </c>
       <c r="Q25" t="n">
-        <v>598.8210444572359</v>
+        <v>588.3890374846088</v>
       </c>
       <c r="R25" t="n">
-        <v>611.4328464707872</v>
+        <v>588.3890374846088</v>
       </c>
       <c r="S25" t="n">
-        <v>567.3390534127946</v>
+        <v>547.0695604962051</v>
       </c>
       <c r="T25" t="n">
-        <v>503.7760697667931</v>
+        <v>486.2808929197927</v>
       </c>
       <c r="U25" t="n">
-        <v>386.2017997942127</v>
+        <v>371.4809390168013</v>
       </c>
       <c r="V25" t="n">
-        <v>295.082464890955</v>
+        <v>283.1359201831327</v>
       </c>
       <c r="W25" t="n">
-        <v>178.5420329466738</v>
+        <v>169.3698043084405</v>
       </c>
       <c r="X25" t="n">
-        <v>116.9055383803693</v>
+        <v>110.5076258117251</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.48634911096605</v>
+        <v>60.86275261191093</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.765944587079</v>
+        <v>1532.641237308575</v>
       </c>
       <c r="C26" t="n">
-        <v>1363.788812942087</v>
+        <v>1418.64358883299</v>
       </c>
       <c r="D26" t="n">
-        <v>1116.92147519151</v>
+        <v>1160.39554881598</v>
       </c>
       <c r="E26" t="n">
-        <v>848.0923823198173</v>
+        <v>880.1857536778533</v>
       </c>
       <c r="F26" t="n">
-        <v>559.8978186521877</v>
+        <v>580.61048774379</v>
       </c>
       <c r="G26" t="n">
-        <v>269.7504591285758</v>
+        <v>279.0824259537445</v>
       </c>
       <c r="H26" t="n">
-        <v>62.88581174808517</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="I26" t="n">
-        <v>62.88581174808517</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J26" t="n">
-        <v>258.334446165349</v>
+        <v>245.1314844327522</v>
       </c>
       <c r="K26" t="n">
-        <v>621.9249083545901</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L26" t="n">
-        <v>1093.260371583995</v>
+        <v>1057.748957268735</v>
       </c>
       <c r="M26" t="n">
-        <v>1609.949627981541</v>
+        <v>1563.283987374949</v>
       </c>
       <c r="N26" t="n">
-        <v>2111.731076813715</v>
+        <v>2053.911209915791</v>
       </c>
       <c r="O26" t="n">
-        <v>2540.185751431007</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P26" t="n">
-        <v>2891.792738031519</v>
+        <v>2811.664418550932</v>
       </c>
       <c r="Q26" t="n">
-        <v>3109.675081862514</v>
+        <v>3018.392536090595</v>
       </c>
       <c r="R26" t="n">
-        <v>3144.290587404259</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S26" t="n">
-        <v>3086.443577653818</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T26" t="n">
-        <v>2988.04125840703</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="U26" t="n">
-        <v>2859.112549143224</v>
+        <v>2828.891353196889</v>
       </c>
       <c r="V26" t="n">
-        <v>2648.089902061366</v>
+        <v>2606.488003848596</v>
       </c>
       <c r="W26" t="n">
-        <v>2411.511598941167</v>
+        <v>2358.528998461964</v>
       </c>
       <c r="X26" t="n">
-        <v>2155.43808548486</v>
+        <v>2091.074782739223</v>
       </c>
       <c r="Y26" t="n">
-        <v>1887.852857082898</v>
+        <v>1812.108852070828</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>927.4859547900248</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C27" t="n">
-        <v>765.7822820309796</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D27" t="n">
-        <v>626.9436450211916</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E27" t="n">
-        <v>479.9156350780628</v>
+        <v>492.5795170969022</v>
       </c>
       <c r="F27" t="n">
-        <v>345.2218370279372</v>
+        <v>357.8857190467766</v>
       </c>
       <c r="G27" t="n">
-        <v>216.4933370512218</v>
+        <v>229.1572190700611</v>
       </c>
       <c r="H27" t="n">
-        <v>116.5554795979198</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I27" t="n">
-        <v>62.88581174808517</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J27" t="n">
-        <v>123.1399582811913</v>
+        <v>121.0912228399263</v>
       </c>
       <c r="K27" t="n">
-        <v>352.63051084138</v>
+        <v>350.581775400115</v>
       </c>
       <c r="L27" t="n">
-        <v>718.4523560114956</v>
+        <v>716.4036205702306</v>
       </c>
       <c r="M27" t="n">
-        <v>1203.485709521722</v>
+        <v>1201.436974080457</v>
       </c>
       <c r="N27" t="n">
-        <v>1714.751355644844</v>
+        <v>1712.702620203579</v>
       </c>
       <c r="O27" t="n">
-        <v>2106.951306428995</v>
+        <v>2104.90257098773</v>
       </c>
       <c r="P27" t="n">
-        <v>2409.047225704693</v>
+        <v>2406.998490263427</v>
       </c>
       <c r="Q27" t="n">
-        <v>2566.818855490287</v>
+        <v>2564.770120049021</v>
       </c>
       <c r="R27" t="n">
-        <v>2507.034586585232</v>
+        <v>2504.985851143967</v>
       </c>
       <c r="S27" t="n">
-        <v>2354.235099597973</v>
+        <v>2352.186364156707</v>
       </c>
       <c r="T27" t="n">
-        <v>2165.549995763958</v>
+        <v>2163.501260322693</v>
       </c>
       <c r="U27" t="n">
-        <v>1947.055203362268</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V27" t="n">
-        <v>1718.659580810602</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W27" t="n">
-        <v>1477.343712043912</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X27" t="n">
-        <v>1279.426723921707</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y27" t="n">
-        <v>1086.905397571286</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>280.862392766343</v>
+        <v>358.4785731901142</v>
       </c>
       <c r="C28" t="n">
-        <v>237.2030502502234</v>
+        <v>303.4385284075609</v>
       </c>
       <c r="D28" t="n">
-        <v>210.0877841001863</v>
+        <v>264.94255999109</v>
       </c>
       <c r="E28" t="n">
-        <v>184.0353968837052</v>
+        <v>227.5094705081752</v>
       </c>
       <c r="F28" t="n">
-        <v>157.5113689316825</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G28" t="n">
-        <v>114.5482473217326</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H28" t="n">
-        <v>81.13222912320653</v>
+        <v>90.46419594837526</v>
       </c>
       <c r="I28" t="n">
-        <v>62.88581174808517</v>
+        <v>60.83707630682016</v>
       </c>
       <c r="J28" t="n">
-        <v>127.4738023545742</v>
+        <v>114.2708406219775</v>
       </c>
       <c r="K28" t="n">
-        <v>161.0779900992176</v>
+        <v>260.1708922197475</v>
       </c>
       <c r="L28" t="n">
-        <v>385.1351596439355</v>
+        <v>473.0738354731336</v>
       </c>
       <c r="M28" t="n">
-        <v>626.5787559159955</v>
+        <v>703.363205453862</v>
       </c>
       <c r="N28" t="n">
-        <v>745.0010976655959</v>
+        <v>934.0814110565889</v>
       </c>
       <c r="O28" t="n">
-        <v>966.914834305744</v>
+        <v>1144.840921405406</v>
       </c>
       <c r="P28" t="n">
-        <v>1128.908541873664</v>
+        <v>1320.10526898667</v>
       </c>
       <c r="Q28" t="n">
-        <v>1214.588183764603</v>
+        <v>1394.630684586278</v>
       </c>
       <c r="R28" t="n">
-        <v>1191.023029401181</v>
+        <v>1359.684827956422</v>
       </c>
       <c r="S28" t="n">
-        <v>1103.269893827069</v>
+        <v>1260.550990115876</v>
       </c>
       <c r="T28" t="n">
-        <v>996.0475676649477</v>
+        <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>834.8139551762476</v>
+        <v>969.3336469321875</v>
       </c>
       <c r="V28" t="n">
-        <v>700.0352777568703</v>
+        <v>823.1742672463765</v>
       </c>
       <c r="W28" t="n">
-        <v>539.8355032964696</v>
+        <v>651.593790519542</v>
       </c>
       <c r="X28" t="n">
-        <v>434.5396662140455</v>
+        <v>534.9172511706842</v>
       </c>
       <c r="Y28" t="n">
-        <v>338.4611344285227</v>
+        <v>427.4580171187276</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1476.884862868428</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.636822851417</v>
+        <v>1218.636822851418</v>
       </c>
       <c r="E29" t="n">
-        <v>938.4270277132907</v>
+        <v>938.4270277132913</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8517617792274</v>
+        <v>638.8517617792279</v>
       </c>
       <c r="G29" t="n">
-        <v>337.3236999891819</v>
+        <v>337.3236999891824</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422577</v>
+        <v>119.0783503422578</v>
       </c>
       <c r="I29" t="n">
-        <v>60.83707630682011</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J29" t="n">
-        <v>245.1314844327521</v>
+        <v>245.1314844327526</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306615</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L29" t="n">
-        <v>1057.748957268734</v>
+        <v>1057.748957268735</v>
       </c>
       <c r="M29" t="n">
         <v>1563.283987374949</v>
@@ -6488,7 +6488,7 @@
         <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727128</v>
+        <v>2969.200764727129</v>
       </c>
       <c r="T29" t="n">
         <v>2859.417743213906</v>
@@ -6497,16 +6497,16 @@
         <v>2719.108331683667</v>
       </c>
       <c r="V29" t="n">
-        <v>2496.704982335375</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W29" t="n">
-        <v>2248.745976948742</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="X29" t="n">
-        <v>2248.745976948742</v>
+        <v>2229.250766612634</v>
       </c>
       <c r="Y29" t="n">
-        <v>2023.710311542106</v>
+        <v>2023.710311542107</v>
       </c>
     </row>
     <row r="30">
@@ -6525,16 +6525,16 @@
         <v>624.8949095799263</v>
       </c>
       <c r="E30" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F30" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1572190700611</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H30" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I30" t="n">
         <v>60.83707630682017</v>
@@ -6598,40 +6598,40 @@
         <v>358.4785731901139</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075606</v>
+        <v>303.4385284075608</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9425599910898</v>
+        <v>264.9425599910899</v>
       </c>
       <c r="E31" t="n">
-        <v>227.509470508175</v>
+        <v>227.5094705081752</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897184</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G31" t="n">
         <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837525</v>
+        <v>90.46419594837528</v>
       </c>
       <c r="I31" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219772</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197475</v>
+        <v>260.1708922197474</v>
       </c>
       <c r="L31" t="n">
         <v>473.0738354731336</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538621</v>
+        <v>703.363205453862</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565891</v>
+        <v>934.0814110565889</v>
       </c>
       <c r="O31" t="n">
         <v>1144.840921405405</v>
@@ -6643,22 +6643,22 @@
         <v>1394.630684586277</v>
       </c>
       <c r="R31" t="n">
-        <v>1359.684827956422</v>
+        <v>1359.684827956421</v>
       </c>
       <c r="S31" t="n">
-        <v>1260.550990115876</v>
+        <v>1260.550990115875</v>
       </c>
       <c r="T31" t="n">
         <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321872</v>
+        <v>969.333646932187</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463762</v>
+        <v>823.174267246376</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195417</v>
+        <v>651.5937905195415</v>
       </c>
       <c r="X31" t="n">
         <v>534.9172511706836</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1565.296106119892</v>
+        <v>1545.026613203301</v>
       </c>
       <c r="C32" t="n">
-        <v>1323.328684005456</v>
+        <v>1305.833507158455</v>
       </c>
       <c r="D32" t="n">
-        <v>1090.471055785437</v>
+        <v>1075.750195008025</v>
       </c>
       <c r="E32" t="n">
-        <v>835.6516724443009</v>
+        <v>823.7051277364781</v>
       </c>
       <c r="F32" t="n">
-        <v>561.4668183072283</v>
+        <v>552.2945896689946</v>
       </c>
       <c r="G32" t="n">
-        <v>285.3291683141733</v>
+        <v>278.9312557455287</v>
       </c>
       <c r="H32" t="n">
-        <v>92.4742304642393</v>
+        <v>88.85063396518414</v>
       </c>
       <c r="I32" t="n">
-        <v>59.62336822579243</v>
+        <v>58.77408779632638</v>
       </c>
       <c r="J32" t="n">
-        <v>131.6219124985981</v>
+        <v>270.6727457042936</v>
       </c>
       <c r="K32" t="n">
-        <v>508.9432909987381</v>
+        <v>580.9887736020509</v>
       </c>
       <c r="L32" t="n">
-        <v>994.0096705390415</v>
+        <v>1068.774260322159</v>
       </c>
       <c r="M32" t="n">
-        <v>1524.429843247487</v>
+        <v>1601.913540210408</v>
       </c>
       <c r="N32" t="n">
-        <v>2030.866241910839</v>
+        <v>2120.145012533285</v>
       </c>
       <c r="O32" t="n">
-        <v>2473.05183283903</v>
+        <v>2425.149597006119</v>
       </c>
       <c r="P32" t="n">
-        <v>2701.208729295084</v>
+        <v>2653.306493462173</v>
       </c>
       <c r="Q32" t="n">
-        <v>2932.821989436978</v>
+        <v>2887.638860783871</v>
       </c>
       <c r="R32" t="n">
-        <v>2981.168411289621</v>
+        <v>2938.704389816319</v>
       </c>
       <c r="S32" t="n">
-        <v>2933.905772472732</v>
+        <v>2894.216067069019</v>
       </c>
       <c r="T32" t="n">
-        <v>2849.513162756501</v>
+        <v>2812.597773422377</v>
       </c>
       <c r="U32" t="n">
-        <v>2734.594163023251</v>
+        <v>2700.453089758716</v>
       </c>
       <c r="V32" t="n">
-        <v>2537.58122547195</v>
+        <v>2506.214468277003</v>
       </c>
       <c r="W32" t="n">
-        <v>2315.012631882308</v>
+        <v>2286.42019075695</v>
       </c>
       <c r="X32" t="n">
-        <v>2072.948827956558</v>
+        <v>2047.13070290079</v>
       </c>
       <c r="Y32" t="n">
-        <v>1819.373309085154</v>
+        <v>1796.329500098974</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>924.223511267732</v>
+        <v>938.0868482983705</v>
       </c>
       <c r="C33" t="n">
-        <v>762.5198385086867</v>
+        <v>776.3831755393252</v>
       </c>
       <c r="D33" t="n">
-        <v>623.6812014988988</v>
+        <v>637.5445385295372</v>
       </c>
       <c r="E33" t="n">
-        <v>476.65319155577</v>
+        <v>490.5165285864084</v>
       </c>
       <c r="F33" t="n">
-        <v>341.9593935056444</v>
+        <v>355.8227305362827</v>
       </c>
       <c r="G33" t="n">
-        <v>213.2308935289289</v>
+        <v>227.0942305595673</v>
       </c>
       <c r="H33" t="n">
-        <v>128.0056535357314</v>
+        <v>127.1563731062654</v>
       </c>
       <c r="I33" t="n">
-        <v>59.62336822579243</v>
+        <v>58.77408779632638</v>
       </c>
       <c r="J33" t="n">
-        <v>119.8775147588986</v>
+        <v>119.0282343294325</v>
       </c>
       <c r="K33" t="n">
-        <v>349.3680673190872</v>
+        <v>348.5187868896212</v>
       </c>
       <c r="L33" t="n">
-        <v>715.1899124892029</v>
+        <v>714.3406320597369</v>
       </c>
       <c r="M33" t="n">
-        <v>1200.223265999429</v>
+        <v>1199.373985569963</v>
       </c>
       <c r="N33" t="n">
-        <v>1711.488912122551</v>
+        <v>1710.639631693085</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.688862906703</v>
+        <v>2102.839582477236</v>
       </c>
       <c r="P33" t="n">
-        <v>2405.7847821824</v>
+        <v>2404.935501752934</v>
       </c>
       <c r="Q33" t="n">
-        <v>2563.556411967994</v>
+        <v>2562.707131538528</v>
       </c>
       <c r="R33" t="n">
-        <v>2503.772143062939</v>
+        <v>2502.922862633473</v>
       </c>
       <c r="S33" t="n">
-        <v>2350.97265607568</v>
+        <v>2350.123375646214</v>
       </c>
       <c r="T33" t="n">
-        <v>2162.287552241665</v>
+        <v>2176.150889272304</v>
       </c>
       <c r="U33" t="n">
-        <v>1943.792759839975</v>
+        <v>1957.656096870614</v>
       </c>
       <c r="V33" t="n">
-        <v>1715.397137288309</v>
+        <v>1729.260474318948</v>
       </c>
       <c r="W33" t="n">
-        <v>1474.081268521619</v>
+        <v>1487.944605552258</v>
       </c>
       <c r="X33" t="n">
-        <v>1276.164280399414</v>
+        <v>1290.027617430052</v>
       </c>
       <c r="Y33" t="n">
-        <v>1083.642954048993</v>
+        <v>1097.506291079631</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.5319825301512</v>
+        <v>159.2624896135615</v>
       </c>
       <c r="C34" t="n">
-        <v>149.8823495445886</v>
+        <v>132.387172697588</v>
       </c>
       <c r="D34" t="n">
-        <v>136.7767929251085</v>
+        <v>122.055932147697</v>
       </c>
       <c r="E34" t="n">
-        <v>124.7341152391844</v>
+        <v>112.787570531362</v>
       </c>
       <c r="F34" t="n">
-        <v>112.2197968177187</v>
+        <v>103.0475681794854</v>
       </c>
       <c r="G34" t="n">
-        <v>83.26638473832583</v>
+        <v>76.86847216968158</v>
       </c>
       <c r="H34" t="n">
-        <v>63.86007607035678</v>
+        <v>60.23647957130163</v>
       </c>
       <c r="I34" t="n">
-        <v>59.62336822579243</v>
+        <v>58.77408779632638</v>
       </c>
       <c r="J34" t="n">
-        <v>137.9422751431804</v>
+        <v>58.77408779632638</v>
       </c>
       <c r="K34" t="n">
-        <v>308.727469343181</v>
+        <v>92.37827554096978</v>
       </c>
       <c r="L34" t="n">
-        <v>409.3345487434406</v>
+        <v>192.9853549412293</v>
       </c>
       <c r="M34" t="n">
-        <v>570.1349093246126</v>
+        <v>310.978861068831</v>
       </c>
       <c r="N34" t="n">
-        <v>688.557251074213</v>
+        <v>538.4701409698752</v>
       </c>
       <c r="O34" t="n">
-        <v>787.0208975699027</v>
+        <v>636.9337874655648</v>
       </c>
       <c r="P34" t="n">
-        <v>987.1703877533978</v>
+        <v>839.8023848288642</v>
       </c>
       <c r="Q34" t="n">
-        <v>987.1703877533978</v>
+        <v>941.9320502105063</v>
       </c>
       <c r="R34" t="n">
-        <v>977.6149429205332</v>
+        <v>935.1509214472308</v>
       </c>
       <c r="S34" t="n">
-        <v>903.8715168769778</v>
+        <v>864.1818114732645</v>
       </c>
       <c r="T34" t="n">
-        <v>810.6589002454137</v>
+        <v>773.7435109112895</v>
       </c>
       <c r="U34" t="n">
-        <v>663.4349972872708</v>
+        <v>629.2939240227356</v>
       </c>
       <c r="V34" t="n">
-        <v>542.6660293984505</v>
+        <v>511.2992722035045</v>
       </c>
       <c r="W34" t="n">
-        <v>396.4759644686068</v>
+        <v>367.8835233432498</v>
       </c>
       <c r="X34" t="n">
-        <v>305.1898369167397</v>
+        <v>279.3717118609718</v>
       </c>
       <c r="Y34" t="n">
-        <v>223.1210146617739</v>
+        <v>200.0772056755951</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1104.364130017708</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N35" t="n">
-        <v>1482.695488705424</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O35" t="n">
-        <v>1952.16784766929</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P35" t="n">
-        <v>2296.133689926718</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D36" t="n">
         <v>629.8711250952965</v>
@@ -7053,13 +7053,13 @@
         <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X36" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y36" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="D37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="E37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="F37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="G37" t="n">
         <v>51.10067436208573</v>
       </c>
-      <c r="D37" t="n">
-        <v>65.54268635500836</v>
-      </c>
-      <c r="E37" t="n">
-        <v>81.02642599070933</v>
-      </c>
-      <c r="F37" t="n">
-        <v>89.05279011354052</v>
-      </c>
-      <c r="G37" t="n">
-        <v>87.9401779889228</v>
-      </c>
       <c r="H37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V37" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670033</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478538</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614929</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F38" t="n">
         <v>469.4217245791956</v>
       </c>
       <c r="G38" t="n">
-        <v>221.1248745409158</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575744</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>692.1751396617389</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.060512746685</v>
+        <v>915.7684941687081</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1473.475434912828</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1851.806793600544</v>
       </c>
       <c r="O38" t="n">
-        <v>2116.635622160323</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.601464417749</v>
+        <v>2384.968274529431</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215968</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104286</v>
@@ -7205,19 +7205,19 @@
         <v>2479.060069480716</v>
       </c>
       <c r="U38" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
@@ -7272,28 +7272,28 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2342.449962211972</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535706</v>
       </c>
       <c r="Y39" t="n">
         <v>1089.832877645391</v>
@@ -7321,31 +7321,31 @@
         <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
         <v>629.3786802696717</v>
@@ -7391,10 +7391,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E41" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F41" t="n">
         <v>469.4217245791957</v>
@@ -7409,25 +7409,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362652</v>
       </c>
       <c r="K41" t="n">
-        <v>527.7073651707066</v>
+        <v>479.048536481048</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556529</v>
+        <v>826.9339095659942</v>
       </c>
       <c r="M41" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N41" t="n">
-        <v>1647.163263196456</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P41" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
         <v>2555.033718104287</v>
@@ -7454,7 +7454,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
         <v>768.7097621050845</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7567,10 +7567,10 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L43" t="n">
         <v>231.5307021686421</v>
@@ -7628,13 +7628,13 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478544</v>
       </c>
       <c r="E44" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614935</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791956</v>
       </c>
       <c r="G44" t="n">
         <v>221.1248745409159</v>
@@ -7643,7 +7643,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
         <v>123.0992186348914</v>
@@ -7652,19 +7652,19 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556528</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M44" t="n">
-        <v>1268.831904508741</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N44" t="n">
-        <v>1687.339019109512</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O44" t="n">
         <v>1992.343603582346</v>
       </c>
       <c r="P44" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q44" t="n">
         <v>2479.400528215969</v>
@@ -7673,16 +7673,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T44" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U44" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W44" t="n">
         <v>2028.08193847085</v>
@@ -7722,13 +7722,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,19 +7749,19 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
         <v>1480.271192118017</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670345</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670345</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670345</v>
+        <v>80.5641709058049</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208573</v>
+        <v>79.45155878118717</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208573</v>
+        <v>87.71820369138582</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208573</v>
+        <v>87.71820369138582</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208573</v>
+        <v>87.71820369138582</v>
       </c>
       <c r="K46" t="n">
-        <v>130.9236227683826</v>
+        <v>121.3223914360292</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686421</v>
+        <v>221.9294708362887</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962438</v>
+        <v>339.9229769638904</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458442</v>
+        <v>458.3453187134908</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415339</v>
+        <v>556.8089652091805</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696717</v>
+        <v>619.7774489373184</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696717</v>
+        <v>619.7774489373184</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W46" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7988,13 +7988,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355793</v>
+        <v>466.4434896000283</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>329.5896455526857</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8058,25 +8058,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>273.8872090777655</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>600.0065597979709</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>591.2377983040394</v>
+        <v>606.2309859515265</v>
       </c>
       <c r="O3" t="n">
-        <v>475.583017853198</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8225,13 +8225,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>508.4785815634991</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>316.2308084873758</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8298,16 +8298,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>616.8469913198519</v>
+        <v>561.7333914068129</v>
       </c>
       <c r="O6" t="n">
-        <v>378.5268421201698</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8775,7 +8775,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>535.9749298389921</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>245.6939129840666</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>136.511784869995</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>203.6588210205953</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>136.511784869995</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>203.6588210205953</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>316.3982470438157</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>264.5215952964604</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9717,13 +9717,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>316.3982470438157</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>535.9749298389926</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>268.8129305257623</v>
       </c>
       <c r="D11" t="n">
-        <v>273.3324485560458</v>
+        <v>259.7942345702903</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7297850896609</v>
+        <v>167.5582270517578</v>
       </c>
       <c r="I11" t="n">
-        <v>75.32575023428909</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.59340904694672</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>147.2203019100893</v>
+        <v>224.3079908082597</v>
       </c>
       <c r="W11" t="n">
-        <v>263.1463042719721</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.08239147537729</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>72.15653327393365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>54.72564752729149</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>98.43091383021859</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1766628945751</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>124.0515306506428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.8129305257623</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>220.1915711039054</v>
       </c>
       <c r="I14" t="n">
-        <v>64.05885499051971</v>
+        <v>61.78753624853357</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>78.32651380317733</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>112.8138662515406</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>251.8794090282027</v>
+        <v>249.6080902862166</v>
       </c>
       <c r="X14" t="n">
-        <v>271.1796672609494</v>
+        <v>7.259388540112695</v>
       </c>
       <c r="Y14" t="n">
-        <v>247.900125369614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>44.51100242774265</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>60.20037933305625</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>47.86958793336343</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>98.43091383021925</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>151.826583581483</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>46.39196605131383</v>
+        <v>57.65886129508324</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.391085211036696</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24740,13 +24740,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.39096260914266</v>
+        <v>72.69122084188993</v>
       </c>
     </row>
     <row r="30">
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>788848.6267278232</v>
+        <v>813090.6438027703</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812230.3700608693</v>
+        <v>813090.6438027701</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897302.0622960961</v>
+        <v>872199.771479248</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901958.2710806634</v>
+        <v>901958.2710806637</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>441383.8347841548</v>
+      </c>
+      <c r="C2" t="n">
         <v>441383.8347841547</v>
       </c>
-      <c r="C2" t="n">
-        <v>441383.8347841546</v>
-      </c>
       <c r="D2" t="n">
-        <v>441383.8347841547</v>
+        <v>441383.8347841549</v>
       </c>
       <c r="E2" t="n">
-        <v>386032.3066965936</v>
+        <v>397895.4214353976</v>
       </c>
       <c r="F2" t="n">
-        <v>397474.4364127658</v>
+        <v>397895.4214353977</v>
       </c>
       <c r="G2" t="n">
-        <v>441383.8347841546</v>
+        <v>441383.8347841548</v>
       </c>
       <c r="H2" t="n">
         <v>441383.8347841547</v>
       </c>
       <c r="I2" t="n">
-        <v>441383.8347841545</v>
+        <v>441383.8347841548</v>
       </c>
       <c r="J2" t="n">
-        <v>439105.2645278762</v>
+        <v>426821.1647664406</v>
       </c>
       <c r="K2" t="n">
-        <v>426821.1647664407</v>
+        <v>426821.1647664406</v>
       </c>
       <c r="L2" t="n">
-        <v>441383.8347841546</v>
+        <v>441383.8347841543</v>
       </c>
       <c r="M2" t="n">
         <v>441383.8347841544</v>
       </c>
       <c r="N2" t="n">
-        <v>441383.8347841543</v>
+        <v>441383.8347841544</v>
       </c>
       <c r="O2" t="n">
         <v>441383.8347841543</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162374.686461011</v>
+        <v>167399.2484849998</v>
       </c>
       <c r="C3" t="n">
-        <v>8273.579555524984</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4712.676765120566</v>
+        <v>8010.326512683565</v>
       </c>
       <c r="E3" t="n">
-        <v>108419.232360675</v>
+        <v>116080.0978984155</v>
       </c>
       <c r="F3" t="n">
-        <v>9013.516195015507</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48711.71042413141</v>
+        <v>49091.91375765706</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>209159.7325173551</v>
+        <v>208779.5291838294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68820.91656734807</v>
+        <v>71398.3782279883</v>
       </c>
       <c r="M3" t="n">
-        <v>22049.91356418191</v>
+        <v>19852.65523706732</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42032.42198243558</v>
+        <v>41652.21864890993</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196766.4994368933</v>
+        <v>192725.6943745029</v>
       </c>
       <c r="C4" t="n">
-        <v>189864.5810980422</v>
+        <v>192725.694374503</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>121491.2190762245</v>
+        <v>134251.7556368557</v>
       </c>
       <c r="F4" t="n">
-        <v>132876.9318848189</v>
+        <v>134251.7556368558</v>
       </c>
       <c r="G4" t="n">
-        <v>176237.959389087</v>
+        <v>177182.3714644568</v>
       </c>
       <c r="H4" t="n">
-        <v>176237.959389087</v>
+        <v>177182.3714644568</v>
       </c>
       <c r="I4" t="n">
-        <v>176237.959389087</v>
+        <v>177182.3714644568</v>
       </c>
       <c r="J4" t="n">
-        <v>174137.0923638539</v>
+        <v>161896.3971701087</v>
       </c>
       <c r="K4" t="n">
         <v>161896.3971701087</v>
       </c>
       <c r="L4" t="n">
-        <v>176163.7439651754</v>
+        <v>176106.8835394372</v>
       </c>
       <c r="M4" t="n">
         <v>175623.1205402357</v>
       </c>
       <c r="N4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
         <v>175623.1205402357</v>
@@ -26467,43 +26467,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63086.57755996892</v>
+        <v>63998.16336893613</v>
       </c>
       <c r="C5" t="n">
-        <v>64643.61649533033</v>
+        <v>63998.16336893613</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46466.404871208</v>
+        <v>46959.09585638228</v>
       </c>
       <c r="F5" t="n">
-        <v>47413.60148745644</v>
+        <v>46959.09585638228</v>
       </c>
       <c r="G5" t="n">
-        <v>52532.53246701432</v>
+        <v>52117.98097849787</v>
       </c>
       <c r="H5" t="n">
-        <v>52532.53246701432</v>
+        <v>52117.98097849786</v>
       </c>
       <c r="I5" t="n">
-        <v>52532.53246701432</v>
+        <v>52117.98097849787</v>
       </c>
       <c r="J5" t="n">
-        <v>58276.37412890278</v>
+        <v>55772.13857729291</v>
       </c>
       <c r="K5" t="n">
         <v>55772.13857729292</v>
       </c>
       <c r="L5" t="n">
-        <v>56962.92149977944</v>
+        <v>56548.37001126299</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
-        <v>52802.81689264635</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19156.0713262815</v>
+        <v>17260.72855571596</v>
       </c>
       <c r="C6" t="n">
-        <v>178602.0576352571</v>
+        <v>184659.9770407155</v>
       </c>
       <c r="D6" t="n">
-        <v>185329.3640488295</v>
+        <v>182031.7143012668</v>
       </c>
       <c r="E6" t="n">
-        <v>109655.4503884861</v>
+        <v>100415.3919857061</v>
       </c>
       <c r="F6" t="n">
-        <v>208170.3868454749</v>
+        <v>216495.4898841216</v>
       </c>
       <c r="G6" t="n">
-        <v>163901.6325039218</v>
+        <v>162991.568583543</v>
       </c>
       <c r="H6" t="n">
-        <v>212613.3429280533</v>
+        <v>212083.4823412</v>
       </c>
       <c r="I6" t="n">
-        <v>212613.3429280532</v>
+        <v>212083.4823412001</v>
       </c>
       <c r="J6" t="n">
-        <v>-2467.934482235622</v>
+        <v>309.7838786107554</v>
       </c>
       <c r="K6" t="n">
-        <v>209152.629019039</v>
+        <v>209089.3130624402</v>
       </c>
       <c r="L6" t="n">
-        <v>139436.2527518517</v>
+        <v>137330.2030054657</v>
       </c>
       <c r="M6" t="n">
-        <v>190907.9837870905</v>
+        <v>193105.242114205</v>
       </c>
       <c r="N6" t="n">
         <v>212957.8973512723</v>
       </c>
       <c r="O6" t="n">
-        <v>170925.4753688367</v>
+        <v>171305.6787023623</v>
       </c>
       <c r="P6" t="n">
-        <v>212957.8973512724</v>
+        <v>212957.8973512723</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F2" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G2" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="H2" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="I2" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="J2" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.522657236331</v>
+        <v>499.5158448838181</v>
       </c>
       <c r="C4" t="n">
-        <v>510.1318502521436</v>
+        <v>499.515844883818</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>631.836874561324</v>
+        <v>621.2208691929983</v>
       </c>
       <c r="F4" t="n">
-        <v>631.836874561324</v>
+        <v>621.2208691929983</v>
       </c>
       <c r="G4" t="n">
-        <v>631.836874561324</v>
+        <v>621.2208691929983</v>
       </c>
       <c r="H4" t="n">
-        <v>631.836874561324</v>
+        <v>621.2208691929983</v>
       </c>
       <c r="I4" t="n">
-        <v>631.836874561324</v>
+        <v>621.2208691929984</v>
       </c>
       <c r="J4" t="n">
-        <v>786.0726468510646</v>
+        <v>760.4634538352519</v>
       </c>
       <c r="K4" t="n">
         <v>760.463453835252</v>
       </c>
       <c r="L4" t="n">
-        <v>745.2921028224054</v>
+        <v>734.6760974540797</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260715</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F2" t="n">
-        <v>11.26689524376938</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>60.88963803016426</v>
+        <v>61.36489219707133</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.54052747804447</v>
+        <v>52.0652733111374</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>86.02614570918509</v>
+        <v>89.24797278498538</v>
       </c>
       <c r="M2" t="n">
-        <v>27.56239195522738</v>
+        <v>24.81581904633416</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.54052747804447</v>
+        <v>52.06527331113742</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.522657236331</v>
+        <v>499.5158448838181</v>
       </c>
       <c r="C4" t="n">
-        <v>25.60919301581259</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.17135101284669</v>
+        <v>25.78735638117234</v>
       </c>
       <c r="E4" t="n">
-        <v>106.5336732963336</v>
+        <v>95.91766792800797</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K2" t="n">
-        <v>11.26689524376938</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.88963803016426</v>
+        <v>61.36489219707133</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.54052747804447</v>
+        <v>52.0652733111374</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>484.522657236331</v>
+        <v>499.5158448838181</v>
       </c>
       <c r="K4" t="n">
-        <v>25.60919301581259</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.17135101284669</v>
+        <v>25.78735638117234</v>
       </c>
       <c r="M4" t="n">
-        <v>106.5336732963336</v>
+        <v>95.91766792800797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>174.8548444688871</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>349.8009245301195</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>55.78086922700922</v>
+        <v>83.69212038519831</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>2.667921586241704</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>8.683331745323983</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.99864579087301</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>11.58264766152706</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27679,10 +27679,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>13.74700983268743</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>148.0321562005723</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>243.6240755350412</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>249.7390356368907</v>
+        <v>32.14325353152987</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>170.1524040948171</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>41.95262199928462</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>2.553487418999026</v>
+        <v>109.8564807160669</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J11" t="n">
-        <v>95.76327656900285</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>95.76327656900285</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>95.76327656900285</v>
+        <v>51.8907387173316</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="N11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>38.77719606906658</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="R11" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y11" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="12">
@@ -28178,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>41.42666179269686</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -28226,7 +28226,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>82.62525542609515</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="L13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="M13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="N13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="O13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="P13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="R13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="S13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y13" t="n">
-        <v>95.76327656900285</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>100.7397869067613</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>107.0301718127722</v>
+        <v>32.32115180167858</v>
       </c>
       <c r="O14" t="n">
-        <v>107.0301718127722</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Q14" t="n">
-        <v>107.0301718127722</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="S14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="15">
@@ -28460,10 +28460,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>41.42666179269688</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>82.62525542609515</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="C16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="E16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="F16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="G16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="H16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="I16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="J16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="K16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="L16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="M16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="N16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="O16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="P16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Q16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="R16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="S16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="T16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="U16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="V16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="W16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="X16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
       <c r="Y16" t="n">
-        <v>107.0301718127722</v>
+        <v>109.3014905547584</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="C17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="D17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="E17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="F17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="G17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="H17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="I17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>7.802776455374101</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>128.1943485170528</v>
       </c>
       <c r="O17" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="S17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="T17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="U17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="V17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="W17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="X17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>82.62525542609532</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>41.42666179269702</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28746,13 +28746,13 @@
         <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
-        <v>29.11782955550385</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>6.699113841652661</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="T19" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="U19" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="V19" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="W19" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="X19" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28798,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="C20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="D20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="E20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="F20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="G20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="H20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="I20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28831,43 +28831,43 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>85.99068265920505</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>167.9198098429365</v>
+        <v>38.46244487794775</v>
       </c>
       <c r="R20" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="T20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="U20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="V20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="W20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="X20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="Y20" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>82.62525542609531</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28940,7 +28940,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>41.42666179269682</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28965,7 +28965,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>167.9198098429365</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>11.68694380886164</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.15196793284785</v>
+        <v>44.85108177450078</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="T22" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="U22" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="V22" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="W22" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="X22" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
     </row>
     <row r="23">
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="C23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="D23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="E23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="F23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="G23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="H23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="I23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="J23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,40 +29071,40 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>7.80277645537339</v>
+        <v>38.46244487794831</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>167.9198098429365</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="T23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="U23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="V23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="W23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="X23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="Y23" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>82.62525542609482</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29177,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>41.42666179269682</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>167.9198098429365</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -29217,7 +29217,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>59.456666199969</v>
+        <v>66.15578004162198</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>160.7657575248477</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="T25" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="U25" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="V25" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="W25" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="X25" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.9198098429365</v>
+        <v>170.6663827518297</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y26" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="27">
@@ -29360,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>14.56549128550364</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550329</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082094</v>
       </c>
       <c r="P28" t="n">
-        <v>100.0254786260425</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y28" t="n">
-        <v>124.6970607519781</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="29">
@@ -29597,7 +29597,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>14.56549128550364</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="C32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="D32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="E32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="F32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="G32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="H32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="I32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="K32" t="n">
-        <v>138.5666731872296</v>
+        <v>70.88450086159045</v>
       </c>
       <c r="L32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="M32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="N32" t="n">
-        <v>129.399030278421</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="O32" t="n">
-        <v>138.5666731872296</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="R32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="S32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="T32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="U32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="V32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="W32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="X32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Y32" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="C34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="D34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="E34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="F34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="G34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="I34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="J34" t="n">
-        <v>138.5666731872296</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>138.5666731872296</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>43.23924692279832</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>110.170644597418</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="R34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="S34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="T34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="U34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="V34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="W34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="X34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.5666731872296</v>
+        <v>141.3132460961228</v>
       </c>
     </row>
     <row r="35">
@@ -30010,28 +30010,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>40.58157162934924</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="P35" t="n">
-        <v>116.9787331327011</v>
-      </c>
       <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="R35" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30068,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30125,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>14.56549128550327</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30147,19 +30147,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>159.063286932391</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>28.58311525926158</v>
       </c>
       <c r="Q37" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30244,16 +30244,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>40.58157162934879</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,13 +30262,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>116.9787331327</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>14.56549128550435</v>
       </c>
     </row>
     <row r="40">
@@ -30402,7 +30402,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>46.68561682995293</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30481,16 +30481,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>116.9787331327008</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="C42" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30639,13 +30639,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30724,22 +30724,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>40.58157162934924</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>40.58157162934924</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>166.1290651424569</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30836,7 +30836,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>14.56549128550327</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30858,19 +30858,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -30879,7 +30879,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>156.6009264078621</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -33992,7 +33992,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>-1.043231742034961e-13</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -34217,7 +34217,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34708,13 +34708,13 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>280.0453754277981</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>141.7128365015292</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34778,25 +34778,25 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>161.8910399110989</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>484.522657236331</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>484.522657236331</v>
+        <v>499.5158448838181</v>
       </c>
       <c r="O3" t="n">
-        <v>359.7235692420869</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,13 +34945,13 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>322.080467391269</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>128.3539994362193</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35018,16 +35018,16 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>510.1318502521436</v>
+        <v>455.0182503391046</v>
       </c>
       <c r="O6" t="n">
-        <v>262.6673935090587</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>168.4890788647662</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>338.3293089374703</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>447.1626433214738</v>
+        <v>403.2901054698025</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>506.5127695982816</v>
       </c>
       <c r="N11" t="n">
-        <v>477.9161641323521</v>
+        <v>491.4543781181076</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>269.2387076408375</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>204.6876053896442</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>489.93268031336</v>
+        <v>420.4910272773523</v>
       </c>
       <c r="N12" t="n">
         <v>516.4299455789112</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>131.9587215391741</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>36.30661036903386</v>
+        <v>49.84482435478937</v>
       </c>
       <c r="K13" t="n">
-        <v>129.7069005534912</v>
+        <v>143.2451145392467</v>
       </c>
       <c r="L13" t="n">
-        <v>197.3865890945175</v>
+        <v>210.924803080273</v>
       </c>
       <c r="M13" t="n">
-        <v>214.9486362938531</v>
+        <v>228.4868502796086</v>
       </c>
       <c r="N13" t="n">
-        <v>215.3818035888012</v>
+        <v>228.9200175745567</v>
       </c>
       <c r="O13" t="n">
-        <v>195.2215053525278</v>
+        <v>208.7597193382833</v>
       </c>
       <c r="P13" t="n">
-        <v>159.3678055873239</v>
+        <v>172.9060195730794</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.611308636155</v>
+        <v>71.14952262191052</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>343.3058192752288</v>
+        <v>351.8675229232258</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>460.7008573072293</v>
       </c>
       <c r="M14" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>489.1830593761215</v>
+        <v>414.4740393650278</v>
       </c>
       <c r="O14" t="n">
-        <v>415.1156106742206</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>339.7630021265293</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.4162866476581</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>19.56958691565319</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.45621320332826</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>89.92362957570283</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.57350561280324</v>
+        <v>49.84482435478937</v>
       </c>
       <c r="K16" t="n">
-        <v>140.9737957972605</v>
+        <v>143.2451145392467</v>
       </c>
       <c r="L16" t="n">
-        <v>208.6534843382869</v>
+        <v>210.924803080273</v>
       </c>
       <c r="M16" t="n">
-        <v>226.2155315376225</v>
+        <v>228.4868502796086</v>
       </c>
       <c r="N16" t="n">
-        <v>226.6486988325706</v>
+        <v>228.9200175745567</v>
       </c>
       <c r="O16" t="n">
-        <v>206.4884005962972</v>
+        <v>208.7597193382833</v>
       </c>
       <c r="P16" t="n">
-        <v>170.6347008310933</v>
+        <v>172.9060195730794</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.87820387992438</v>
+        <v>71.14952262191052</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>250.3688088238415</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>522.0657495043006</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>510.3472360804021</v>
       </c>
       <c r="O17" t="n">
-        <v>476.0052487043849</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>263.3059246778224</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>78.18790620383132</v>
+        <v>80.93447911272452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.45621320332826</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>89.92362957570283</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>63.06145353999215</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M19" t="n">
-        <v>119.1853597248502</v>
+        <v>125.8844735665029</v>
       </c>
       <c r="N19" t="n">
         <v>119.6185270197983</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>243.392185047593</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36127,19 +36127,19 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>565.1310888864597</v>
+        <v>567.8776617953529</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>394.0761215206535</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>263.3059246778224</v>
+        <v>133.8485597128336</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>204.402077877149</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>150.7864038515679</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36261,7 +36261,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>17.43088574664216</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -36294,10 +36294,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P22" t="n">
-        <v>75.29147282718264</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>6.699113841652935</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>240.6456121386998</v>
+        <v>243.392185047593</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>413.2324151202971</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36367,19 +36367,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>550.0726974062857</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>238.2642880271443</v>
+        <v>268.9239564497192</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>78.18790620383132</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>204.402077877149</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>420.4910272773527</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36495,7 +36495,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>16.37863560242161</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.699113841652977</v>
       </c>
       <c r="K25" t="n">
         <v>33.9436239844883</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.73919395308219</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>197.4228630477414</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>367.2630931204455</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
-        <v>476.096427504449</v>
+        <v>464.8295322606796</v>
       </c>
       <c r="M26" t="n">
-        <v>521.9083397955013</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N26" t="n">
-        <v>506.8499483153273</v>
+        <v>495.5830530715579</v>
       </c>
       <c r="O26" t="n">
-        <v>432.7824996134266</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P26" t="n">
-        <v>355.158572323749</v>
+        <v>343.8916770799796</v>
       </c>
       <c r="Q26" t="n">
-        <v>220.083175586864</v>
+        <v>208.8162803430945</v>
       </c>
       <c r="R26" t="n">
-        <v>34.96515711287293</v>
+        <v>23.69826186910352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.24039455200912</v>
+        <v>53.9734993082397</v>
       </c>
       <c r="K28" t="n">
-        <v>33.9436239844883</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L28" t="n">
-        <v>226.3203732774928</v>
+        <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>243.8824204768283</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N28" t="n">
-        <v>119.6185270197983</v>
+        <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>224.155289535503</v>
+        <v>212.8883942917344</v>
       </c>
       <c r="P28" t="n">
-        <v>163.6300076443635</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.54509281913026</v>
+        <v>75.27819757536085</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>214.039048391886</v>
       </c>
       <c r="K32" t="n">
-        <v>381.132705555697</v>
+        <v>313.4505332300579</v>
       </c>
       <c r="L32" t="n">
-        <v>489.9660399397005</v>
+        <v>492.7126128485937</v>
       </c>
       <c r="M32" t="n">
-        <v>535.7779522307527</v>
+        <v>538.5245251396459</v>
       </c>
       <c r="N32" t="n">
-        <v>511.5519178417702</v>
+        <v>523.466133659472</v>
       </c>
       <c r="O32" t="n">
-        <v>446.652112048678</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P32" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>233.9527880221154</v>
+        <v>236.6993609310086</v>
       </c>
       <c r="R32" t="n">
-        <v>48.83476954812437</v>
+        <v>51.58134245701757</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.11000698726056</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>172.5102971717179</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>162.4246066476485</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>229.7891716172163</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>202.1712022055506</v>
+        <v>204.9177751144438</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>103.1612781632749</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728724</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>347.440244704472</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,19 +37443,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>8.107438507910301</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37479,13 +37479,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>63.604529018321</v>
+        <v>92.18764427758258</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
         <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818197</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
@@ -37558,13 +37558,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>347.4402447044709</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117103</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>110.2901458482739</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284641</v>
       </c>
       <c r="K41" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
@@ -37798,7 +37798,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3648479675866</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
-        <v>489.9326803133602</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
         <v>516.4299455789112</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -38020,22 +38020,22 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728724</v>
       </c>
       <c r="N44" t="n">
-        <v>422.7344591926985</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q44" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>76.39716150335175</v>
@@ -38154,19 +38154,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>80.62924081444127</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.574362836096576</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
